--- a/master_c4g_24.xlsx
+++ b/master_c4g_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakefarren-price/Google Drive/RYA - Analysis/Crew4Gold_24/c4g/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C673A0-94C7-9D48-AE6D-A9310C5B2F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCEB601-E2CA-364F-BEB6-7327FDBB6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21020" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{1BFC6774-FC3C-7F41-9822-A1F8BB71180D}"/>
   </bookViews>
@@ -584,8 +584,8 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I28" sqref="I28"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,6 +751,49 @@
       <c r="E3" s="5">
         <v>190</v>
       </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <f>M2+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:T3" si="0">N2+1</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -762,6 +805,49 @@
       <c r="E4" s="5">
         <v>170</v>
       </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:T4" si="1">N2-0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
       <c r="U4" s="5">
         <v>2</v>
       </c>
@@ -791,6 +877,18 @@
       <c r="E5" s="5">
         <v>160</v>
       </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>32</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -801,6 +899,18 @@
       </c>
       <c r="E6" s="5">
         <v>155</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -813,6 +923,15 @@
       <c r="E7" s="5">
         <v>147</v>
       </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -824,6 +943,15 @@
       <c r="E8" s="5">
         <v>139</v>
       </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -835,6 +963,12 @@
       <c r="E9" s="5">
         <v>131</v>
       </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -846,6 +980,15 @@
       <c r="E10" s="5">
         <v>123</v>
       </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -857,6 +1000,12 @@
       <c r="E11" s="5">
         <v>115</v>
       </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -868,6 +1017,15 @@
       <c r="E12" s="5">
         <v>107</v>
       </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -878,6 +1036,15 @@
       </c>
       <c r="E13" s="5">
         <v>99</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">

--- a/master_c4g_24.xlsx
+++ b/master_c4g_24.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakefarren-price/Google Drive/RYA - Analysis/Crew4Gold_24/c4g/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCEB601-E2CA-364F-BEB6-7327FDBB6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F5A7E-E934-DF4D-B348-F8DB0A88BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21020" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{1BFC6774-FC3C-7F41-9822-A1F8BB71180D}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Will to stretch and challenge themselves</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>Moment</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -241,10 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,21 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A712AE-29D8-B14A-9818-F49A7E8BD933}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="27" width="15" style="5" customWidth="1"/>
+    <col min="3" max="29" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,57 +641,66 @@
       <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="5">
+        <v>65</v>
+      </c>
       <c r="E2" s="5">
         <v>180</v>
       </c>
@@ -699,57 +717,68 @@
         <v>356</v>
       </c>
       <c r="M2" s="5">
+        <f>0.58*E2</f>
+        <v>104.39999999999999</v>
+      </c>
+      <c r="N2" s="5">
+        <f>M2*D2</f>
+        <v>6785.9999999999991</v>
+      </c>
+      <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="N2" s="5">
+      <c r="P2" s="5">
         <v>2</v>
       </c>
-      <c r="O2" s="5">
-        <v>3</v>
-      </c>
-      <c r="P2" s="5">
-        <v>4</v>
-      </c>
       <c r="Q2" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" s="5">
         <v>4</v>
       </c>
       <c r="S2" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" s="5">
         <v>3</v>
       </c>
       <c r="V2" s="5">
+        <v>3</v>
+      </c>
+      <c r="W2" s="5">
+        <v>3</v>
+      </c>
+      <c r="X2" s="5">
         <v>4</v>
       </c>
-      <c r="W2" s="5">
-        <v>5</v>
-      </c>
-      <c r="X2" s="5">
-        <v>5</v>
-      </c>
       <c r="Y2" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" s="5">
+        <v>70</v>
+      </c>
       <c r="E3" s="5">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -764,44 +793,55 @@
         <v>3</v>
       </c>
       <c r="M3" s="5">
-        <f>M2+1</f>
+        <f t="shared" ref="M3:M14" si="0">0.58*E3</f>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N14" si="1">M3*D3</f>
+        <v>6698.9999999999991</v>
+      </c>
+      <c r="O3" s="5">
+        <f>O2+1</f>
         <v>2</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:T3" si="0">N2+1</f>
-        <v>3</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="0"/>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:V3" si="2">P2+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S3" s="5">
         <v>2</v>
       </c>
-      <c r="R3" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" si="0"/>
+      <c r="T3" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T3" s="5">
-        <f t="shared" si="0"/>
+      <c r="V3" s="5">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="5">
+        <v>60</v>
+      </c>
       <c r="E4" s="5">
         <v>170</v>
       </c>
@@ -818,62 +858,73 @@
         <v>3</v>
       </c>
       <c r="M4" s="5">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>98.6</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:T4" si="1">N2-0.5</f>
+        <f t="shared" si="1"/>
+        <v>5916</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:V4" si="3">P2-0.5</f>
         <v>1.5</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="5">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="P4" s="5">
-        <f t="shared" si="1"/>
+      <c r="R4" s="5">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="1"/>
+      <c r="S4" s="5">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" si="1"/>
+      <c r="T4" s="5">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="S4" s="5">
-        <f t="shared" si="1"/>
+      <c r="U4" s="5">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="T4" s="5">
-        <f t="shared" si="1"/>
+      <c r="V4" s="5">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="U4" s="5">
+      <c r="W4" s="5">
         <v>2</v>
       </c>
-      <c r="V4" s="5">
-        <v>3</v>
-      </c>
-      <c r="W4" s="5">
-        <v>4</v>
-      </c>
       <c r="X4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="5">
         <v>4</v>
       </c>
       <c r="Z4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="5">
+        <v>65</v>
+      </c>
       <c r="E5" s="5">
         <v>160</v>
       </c>
@@ -889,14 +940,25 @@
       <c r="I5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>92.8</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="5">
+        <v>65</v>
+      </c>
       <c r="E6" s="5">
         <v>155</v>
       </c>
@@ -912,14 +974,25 @@
       <c r="I6" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>89.899999999999991</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>5843.4999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="5">
+        <v>66</v>
+      </c>
       <c r="E7" s="5">
         <v>147</v>
       </c>
@@ -932,14 +1005,25 @@
       <c r="I7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>85.259999999999991</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>5627.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="5">
+        <v>67</v>
+      </c>
       <c r="E8" s="5">
         <v>139</v>
       </c>
@@ -952,14 +1036,25 @@
       <c r="I8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>80.61999999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>5401.5399999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="5">
+        <v>68</v>
+      </c>
       <c r="E9" s="5">
         <v>131</v>
       </c>
@@ -969,14 +1064,25 @@
       <c r="I9" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>75.97999999999999</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>5166.6399999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="5">
+        <v>69</v>
+      </c>
       <c r="E10" s="5">
         <v>123</v>
       </c>
@@ -989,14 +1095,25 @@
       <c r="I10" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>71.339999999999989</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>4922.4599999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="5">
+        <v>70</v>
+      </c>
       <c r="E11" s="5">
         <v>115</v>
       </c>
@@ -1006,14 +1123,25 @@
       <c r="I11" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>4668.9999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="5">
+        <v>71</v>
+      </c>
       <c r="E12" s="5">
         <v>107</v>
       </c>
@@ -1026,14 +1154,25 @@
       <c r="H12" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>62.059999999999995</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>4406.2599999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="5">
+        <v>72</v>
+      </c>
       <c r="E13" s="5">
         <v>99</v>
       </c>
@@ -1046,16 +1185,35 @@
       <c r="I13" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>57.419999999999995</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>4134.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="5">
+        <v>73</v>
+      </c>
       <c r="E14" s="5">
         <v>91</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>52.779999999999994</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>3852.9399999999996</v>
       </c>
     </row>
   </sheetData>

--- a/master_c4g_24.xlsx
+++ b/master_c4g_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakefarren-price/Google Drive/RYA - Analysis/Crew4Gold_24/c4g/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD9F33F-8D4F-0B4A-B0F6-9644831FAA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC3C75-1545-064B-A58D-F7453989B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>CMJ</t>
-  </si>
-  <si>
     <t>Leg Press</t>
   </si>
   <si>
@@ -350,23 +347,56 @@
     <t>Behaviour Rank</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Uni</t>
-  </si>
-  <si>
     <t>Fitness Rank</t>
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/01/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13/01/2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +447,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -497,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -562,7 +598,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -581,8 +616,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3106,7 +3151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:O16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -3292,7 +3337,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -3932,11 +3977,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3946,21 +3991,21 @@
     <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="9" customWidth="1"/>
     <col min="5" max="6" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="9" customWidth="1"/>
-    <col min="15" max="16" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.1640625" style="9" customWidth="1"/>
-    <col min="32" max="32" width="17.1640625" customWidth="1"/>
-    <col min="33" max="33" width="17.5" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="7" max="9" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="9" customWidth="1"/>
+    <col min="14" max="15" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" customWidth="1"/>
+    <col min="32" max="32" width="17.5" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" customWidth="1"/>
+    <col min="34" max="34" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3988,7 +4033,7 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -3997,19 +4042,19 @@
       <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>105</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="7" t="s">
@@ -4030,7 +4075,7 @@
       <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Y1" s="8" t="s">
@@ -4048,1313 +4093,1368 @@
       <c r="AC1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>76</v>
+      <c r="AH1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="12">
-        <v>37622</v>
-      </c>
-      <c r="D2" s="31">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="30">
+        <v>68.95</v>
+      </c>
+      <c r="F2" s="30">
+        <v>170.8</v>
+      </c>
+      <c r="G2" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="L2" s="31">
+        <v>0.91</v>
+      </c>
+      <c r="M2" s="9">
+        <f>_xlfn.RANK.AVG(L2,$L$2:$L$14)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="N2" s="11">
+        <f>0.58*F2</f>
+        <v>99.063999999999993</v>
+      </c>
+      <c r="O2" s="11">
+        <f>N2*E2/100</f>
+        <v>68.304628000000008</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="27">
+        <f>AVERAGE(P2:W2)</f>
+        <v>3.375</v>
+      </c>
+      <c r="AE2" s="27">
+        <f>AVERAGE(X2:AC2)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="AF2" s="9">
+        <f t="shared" ref="AF2:AF11" si="0">_xlfn.RANK.AVG(AD2,$AD$2:$AD$14)</f>
+        <v>11</v>
+      </c>
+      <c r="AG2" s="9">
+        <f t="shared" ref="AG2:AG11" si="1">_xlfn.RANK.AVG(AE2,$AE$2:$AE$14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="30">
+        <v>71.5</v>
+      </c>
+      <c r="F3" s="30">
+        <v>173</v>
+      </c>
+      <c r="G3" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="L3" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M14" si="2">_xlfn.RANK.AVG(L3,$L$2:$L$14)</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N14" si="3">0.58*F3</f>
+        <v>100.33999999999999</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" ref="O3:O14" si="4">N3*E3/100</f>
+        <v>71.743099999999998</v>
+      </c>
+      <c r="P3">
+        <v>3.5</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3.5</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>3.5</v>
+      </c>
+      <c r="U3">
+        <v>3.5</v>
+      </c>
+      <c r="V3">
+        <v>3.5</v>
+      </c>
+      <c r="W3">
+        <v>3.5</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="27">
+        <f t="shared" ref="AD3:AD14" si="5">AVERAGE(P3:W3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AE3" s="27">
+        <f t="shared" ref="AE3:AE14" si="6">AVERAGE(X3:AC3)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AF3" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="30">
+        <v>56.9</v>
+      </c>
+      <c r="F4" s="30">
+        <v>168</v>
+      </c>
+      <c r="G4" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
+        <v>4</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="3"/>
+        <v>97.44</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="4"/>
+        <v>55.443359999999991</v>
+      </c>
+      <c r="P4">
+        <v>3.5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>3.5</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3.5</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4.5</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="27">
+        <f t="shared" si="5"/>
+        <v>3.6875</v>
+      </c>
+      <c r="AE4" s="27">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="30">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F5" s="30">
+        <v>167.1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>3.7</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3.7</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="3"/>
+        <v>96.917999999999992</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="4"/>
+        <v>66.00115799999999</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="27">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="AE5" s="27">
+        <f t="shared" si="6"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="30">
+        <v>70.3</v>
+      </c>
+      <c r="F6" s="30">
+        <v>168.5</v>
+      </c>
+      <c r="G6" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="3"/>
+        <v>97.72999999999999</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="4"/>
+        <v>68.704189999999983</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="27">
+        <f t="shared" si="5"/>
+        <v>4.125</v>
+      </c>
+      <c r="AE6" s="27">
+        <f t="shared" si="6"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="30">
+        <v>63.35</v>
+      </c>
+      <c r="F7" s="30">
+        <v>164.1</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="3"/>
+        <v>95.177999999999983</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="4"/>
+        <v>60.295262999999984</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="27">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="AE7" s="27">
+        <f t="shared" si="6"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="30">
+        <v>62.35</v>
+      </c>
+      <c r="F8" s="30">
+        <v>168.3</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="3"/>
+        <v>97.614000000000004</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="4"/>
+        <v>60.862329000000003</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="5"/>
+        <v>3.625</v>
+      </c>
+      <c r="AE8" s="27">
+        <f t="shared" si="6"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="30">
+        <v>72.05</v>
+      </c>
+      <c r="F9" s="30">
+        <v>176.6</v>
+      </c>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="3"/>
+        <v>102.42799999999998</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="4"/>
+        <v>73.799373999999986</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="27">
+        <f t="shared" si="5"/>
+        <v>3.625</v>
+      </c>
+      <c r="AE9" s="27">
+        <f t="shared" si="6"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="33">
         <v>65</v>
       </c>
-      <c r="F2" s="10">
-        <v>180</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>23</v>
-      </c>
-      <c r="J2" s="10">
-        <v>356</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="9">
-        <v>50</v>
-      </c>
-      <c r="N2" s="9">
-        <f>_xlfn.RANK.AVG(M2,$M$2:$M$14)</f>
-        <v>13</v>
-      </c>
-      <c r="O2" s="11">
-        <f t="shared" ref="O2:O14" si="0">0.58*F2</f>
-        <v>104.39999999999999</v>
-      </c>
-      <c r="P2" s="11">
-        <f>O2*E2/100</f>
-        <v>67.859999999999985</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>3</v>
-      </c>
-      <c r="R2" s="24">
-        <v>3</v>
-      </c>
-      <c r="S2" s="24">
-        <v>3</v>
-      </c>
-      <c r="T2" s="24">
-        <v>4</v>
-      </c>
-      <c r="U2" s="24">
-        <v>4</v>
-      </c>
-      <c r="V2" s="24">
-        <v>3</v>
-      </c>
-      <c r="W2" s="24">
-        <v>3</v>
-      </c>
-      <c r="X2" s="24">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="24">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="28">
-        <f>AVERAGE(Q2:X2)</f>
-        <v>3.375</v>
-      </c>
-      <c r="AF2" s="28">
-        <f>AVERAGE(Y2:AD2)</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AG2" s="9">
-        <f>_xlfn.RANK.AVG(AE2,$AE$2:$AE$14)</f>
-        <v>11</v>
-      </c>
-      <c r="AH2" s="9">
-        <f>_xlfn.RANK.AVG(AF2,$AF$2:$AF$14)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12">
-        <v>37623</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>70</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="F10" s="33">
         <v>165</v>
       </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10">
-        <v>3</v>
-      </c>
-      <c r="I3" s="10">
-        <v>45</v>
-      </c>
-      <c r="J3" s="10">
-        <v>3</v>
-      </c>
-      <c r="M3" s="9">
-        <v>60</v>
-      </c>
-      <c r="N3" s="9">
-        <f t="shared" ref="N3:N14" si="1">_xlfn.RANK.AVG(M3,$M$2:$M$14)</f>
-        <v>12</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="N10" s="11">
+        <f t="shared" si="3"/>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="4"/>
+        <v>62.204999999999991</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>3.5</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>3.5</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3.5</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="27">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="AE10" s="27">
+        <f t="shared" si="6"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="AF10" s="9">
         <f t="shared" si="0"/>
-        <v>95.699999999999989</v>
-      </c>
-      <c r="P3" s="11">
-        <f t="shared" ref="P3:P14" si="2">O3*E3/100</f>
-        <v>66.989999999999995</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="R3" s="24">
-        <v>3</v>
-      </c>
-      <c r="S3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="T3" s="24">
-        <v>4</v>
-      </c>
-      <c r="U3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="V3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="W3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="X3" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="Y3" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="28">
-        <f t="shared" ref="AE3:AE14" si="3">AVERAGE(Q3:X3)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AF3" s="28">
-        <f t="shared" ref="AF3:AF14" si="4">AVERAGE(Y3:AD3)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AG3" s="9">
-        <f>_xlfn.RANK.AVG(AE3,$AE$2:$AE$14)</f>
-        <v>9.5</v>
-      </c>
-      <c r="AH3" s="9">
-        <f>_xlfn.RANK.AVG(AF3,$AF$2:$AF$14)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12">
-        <v>37624</v>
-      </c>
-      <c r="D4" s="31">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>60</v>
-      </c>
-      <c r="F4" s="10">
-        <v>170</v>
-      </c>
-      <c r="G4" s="10">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10">
         <v>5</v>
       </c>
-      <c r="I4" s="10">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10">
-        <v>3</v>
-      </c>
-      <c r="M4" s="9">
-        <v>70</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="AG10" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O4" s="11">
+    </row>
+    <row r="11" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="33">
+        <v>65</v>
+      </c>
+      <c r="F11" s="33">
+        <v>165</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="N11" s="11">
+        <f t="shared" si="3"/>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="4"/>
+        <v>62.204999999999991</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="27">
+        <f t="shared" si="5"/>
+        <v>2.625</v>
+      </c>
+      <c r="AE11" s="27">
+        <f t="shared" si="6"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AF11" s="9">
         <f t="shared" si="0"/>
-        <v>98.6</v>
-      </c>
-      <c r="P4" s="11">
-        <f t="shared" si="2"/>
-        <v>59.16</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="R4" s="24">
-        <v>4</v>
-      </c>
-      <c r="S4" s="24">
-        <v>3</v>
-      </c>
-      <c r="T4" s="24">
-        <v>4</v>
-      </c>
-      <c r="U4" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="V4" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="W4" s="24">
-        <v>4</v>
-      </c>
-      <c r="X4" s="24">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="AC4" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="28">
-        <f t="shared" si="3"/>
-        <v>3.6875</v>
-      </c>
-      <c r="AF4" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AG4" s="9">
-        <f>_xlfn.RANK.AVG(AE4,$AE$2:$AE$14)</f>
-        <v>6</v>
-      </c>
-      <c r="AH4" s="9">
-        <f>_xlfn.RANK.AVG(AF4,$AF$2:$AF$14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12">
-        <v>37625</v>
-      </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10">
-        <v>160</v>
-      </c>
-      <c r="G5" s="10">
-        <v>3</v>
-      </c>
-      <c r="H5" s="10">
-        <v>23</v>
-      </c>
-      <c r="I5" s="10">
-        <v>32</v>
-      </c>
-      <c r="J5" s="10">
-        <v>4</v>
-      </c>
-      <c r="M5" s="9">
-        <v>80</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O5" s="11">
-        <f t="shared" si="0"/>
-        <v>92.8</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" si="2"/>
-        <v>60.32</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>4</v>
-      </c>
-      <c r="R5" s="24">
-        <v>5</v>
-      </c>
-      <c r="S5" s="24">
-        <v>4</v>
-      </c>
-      <c r="T5" s="24">
-        <v>5</v>
-      </c>
-      <c r="U5" s="24">
-        <v>4</v>
-      </c>
-      <c r="V5" s="24">
-        <v>4</v>
-      </c>
-      <c r="W5" s="24">
-        <v>5</v>
-      </c>
-      <c r="X5" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="28">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="AF5" s="28">
-        <f t="shared" si="4"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AG5" s="9">
-        <f>_xlfn.RANK.AVG(AE5,$AE$2:$AE$14)</f>
-        <v>2</v>
-      </c>
-      <c r="AH5" s="9">
-        <f>_xlfn.RANK.AVG(AF5,$AF$2:$AF$14)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12">
-        <v>37626</v>
-      </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>65</v>
-      </c>
-      <c r="F6" s="10">
-        <v>155</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" s="10">
-        <v>6</v>
-      </c>
-      <c r="M6" s="9">
-        <v>90</v>
-      </c>
-      <c r="N6" s="9">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O6" s="11">
-        <f t="shared" si="0"/>
-        <v>89.899999999999991</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="2"/>
-        <v>58.434999999999988</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>4</v>
-      </c>
-      <c r="R6" s="24">
-        <v>4</v>
-      </c>
-      <c r="S6" s="24">
-        <v>4</v>
-      </c>
-      <c r="T6" s="24">
-        <v>4</v>
-      </c>
-      <c r="U6" s="24">
-        <v>4</v>
-      </c>
-      <c r="V6" s="24">
-        <v>5</v>
-      </c>
-      <c r="W6" s="24">
-        <v>5</v>
-      </c>
-      <c r="X6" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="28">
+    </row>
+    <row r="12" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="33">
+        <v>65</v>
+      </c>
+      <c r="F12" s="33">
+        <v>165</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="N12" s="11">
         <f t="shared" si="3"/>
-        <v>4.125</v>
-      </c>
-      <c r="AF6" s="28">
+        <v>95.699999999999989</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="4"/>
+        <v>62.204999999999991</v>
+      </c>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+    </row>
+    <row r="13" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="33">
+        <v>65</v>
+      </c>
+      <c r="F13" s="33">
+        <v>165</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="N13" s="11">
+        <f t="shared" si="3"/>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="4"/>
+        <v>62.204999999999991</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="27">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="AE13" s="27">
+        <f t="shared" si="6"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="AG6" s="9">
-        <f>_xlfn.RANK.AVG(AE6,$AE$2:$AE$14)</f>
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <f>_xlfn.RANK.AVG(AF6,$AF$2:$AF$14)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="12">
-        <v>37627</v>
-      </c>
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>66</v>
-      </c>
-      <c r="F7" s="10">
-        <v>147</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3</v>
-      </c>
-      <c r="J7" s="10">
-        <v>3</v>
-      </c>
-      <c r="M7" s="9">
-        <v>100</v>
-      </c>
-      <c r="N7" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" si="0"/>
-        <v>85.259999999999991</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="2"/>
-        <v>56.271599999999999</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>4</v>
-      </c>
-      <c r="R7" s="24">
-        <v>4</v>
-      </c>
-      <c r="S7" s="24">
-        <v>4</v>
-      </c>
-      <c r="T7" s="24">
-        <v>5</v>
-      </c>
-      <c r="U7" s="24">
-        <v>5</v>
-      </c>
-      <c r="V7" s="24">
-        <v>4</v>
-      </c>
-      <c r="W7" s="24">
-        <v>5</v>
-      </c>
-      <c r="X7" s="24">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="28">
-        <f t="shared" si="3"/>
-        <v>4.375</v>
-      </c>
-      <c r="AF7" s="28">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AG7" s="9">
-        <f>_xlfn.RANK.AVG(AE7,$AE$2:$AE$14)</f>
-        <v>1</v>
-      </c>
-      <c r="AH7" s="9">
-        <f>_xlfn.RANK.AVG(AF7,$AF$2:$AF$14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12">
-        <v>37628</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>67</v>
-      </c>
-      <c r="F8" s="10">
-        <v>139</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10">
-        <v>3</v>
-      </c>
-      <c r="J8" s="10">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9">
-        <v>110</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="0"/>
-        <v>80.61999999999999</v>
-      </c>
-      <c r="P8" s="11">
-        <f t="shared" si="2"/>
-        <v>54.015399999999993</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>5</v>
-      </c>
-      <c r="R8" s="24">
-        <v>3</v>
-      </c>
-      <c r="S8" s="24">
-        <v>4</v>
-      </c>
-      <c r="T8" s="24">
-        <v>3</v>
-      </c>
-      <c r="U8" s="24">
-        <v>4</v>
-      </c>
-      <c r="V8" s="24">
-        <v>4</v>
-      </c>
-      <c r="W8" s="24">
-        <v>3</v>
-      </c>
-      <c r="X8" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="24">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="28">
-        <f t="shared" si="3"/>
-        <v>3.625</v>
-      </c>
-      <c r="AF8" s="28">
-        <f t="shared" si="4"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AG8" s="9">
-        <f>_xlfn.RANK.AVG(AE8,$AE$2:$AE$14)</f>
-        <v>7.5</v>
-      </c>
-      <c r="AH8" s="9">
-        <f>_xlfn.RANK.AVG(AF8,$AF$2:$AF$14)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="12">
-        <v>37629</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>68</v>
-      </c>
-      <c r="F9" s="10">
-        <v>131</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="M9" s="9">
-        <v>120</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="0"/>
-        <v>75.97999999999999</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="2"/>
-        <v>51.666399999999996</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>4</v>
-      </c>
-      <c r="R9" s="24">
-        <v>3</v>
-      </c>
-      <c r="S9" s="24">
-        <v>4</v>
-      </c>
-      <c r="T9" s="24">
-        <v>4</v>
-      </c>
-      <c r="U9" s="24">
-        <v>4</v>
-      </c>
-      <c r="V9" s="24">
-        <v>3</v>
-      </c>
-      <c r="W9" s="24">
-        <v>4</v>
-      </c>
-      <c r="X9" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="24">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="28">
-        <f t="shared" si="3"/>
-        <v>3.625</v>
-      </c>
-      <c r="AF9" s="28">
-        <f t="shared" si="4"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AG9" s="9">
-        <f>_xlfn.RANK.AVG(AE9,$AE$2:$AE$14)</f>
-        <v>7.5</v>
-      </c>
-      <c r="AH9" s="9">
-        <f>_xlfn.RANK.AVG(AF9,$AF$2:$AF$14)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12">
-        <v>37630</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>69</v>
-      </c>
-      <c r="F10" s="10">
-        <v>123</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10">
-        <v>55</v>
-      </c>
-      <c r="M10" s="9">
-        <v>130</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="0"/>
-        <v>71.339999999999989</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" si="2"/>
-        <v>49.224599999999988</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>4</v>
-      </c>
-      <c r="R10" s="24">
-        <v>4</v>
-      </c>
-      <c r="S10" s="24">
-        <v>3</v>
-      </c>
-      <c r="T10" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="U10" s="24">
-        <v>4</v>
-      </c>
-      <c r="V10" s="24">
-        <v>4</v>
-      </c>
-      <c r="W10" s="24">
-        <v>4</v>
-      </c>
-      <c r="X10" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="Y10" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="AA10" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="28">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="AF10" s="28">
-        <f t="shared" si="4"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="AG10" s="9">
-        <f>_xlfn.RANK.AVG(AE10,$AE$2:$AE$14)</f>
-        <v>5</v>
-      </c>
-      <c r="AH10" s="9">
-        <f>_xlfn.RANK.AVG(AF10,$AF$2:$AF$14)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="12">
-        <v>37631</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>70</v>
-      </c>
-      <c r="F11" s="10">
-        <v>115</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10">
-        <v>6</v>
-      </c>
-      <c r="J11" s="10">
-        <v>5</v>
-      </c>
-      <c r="M11" s="9">
-        <v>140</v>
-      </c>
-      <c r="N11" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="0"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="2"/>
-        <v>46.689999999999991</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>2</v>
-      </c>
-      <c r="R11" s="24">
-        <v>2</v>
-      </c>
-      <c r="S11" s="24">
-        <v>2</v>
-      </c>
-      <c r="T11" s="24">
-        <v>3</v>
-      </c>
-      <c r="U11" s="24">
-        <v>3</v>
-      </c>
-      <c r="V11" s="24">
-        <v>3</v>
-      </c>
-      <c r="W11" s="24">
-        <v>3</v>
-      </c>
-      <c r="X11" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="24">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="28">
-        <f t="shared" si="3"/>
-        <v>2.625</v>
-      </c>
-      <c r="AF11" s="28">
-        <f t="shared" si="4"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AG11" s="9">
-        <f>_xlfn.RANK.AVG(AE11,$AE$2:$AE$14)</f>
-        <v>12</v>
-      </c>
-      <c r="AH11" s="9">
-        <f>_xlfn.RANK.AVG(AF11,$AF$2:$AF$14)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="12">
-        <v>37632</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>71</v>
-      </c>
-      <c r="F12" s="10">
-        <v>107</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="H12" s="10">
-        <v>55</v>
-      </c>
-      <c r="I12" s="10">
-        <v>5</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="M12" s="9">
-        <v>150</v>
-      </c>
-      <c r="N12" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="0"/>
-        <v>62.059999999999995</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="2"/>
-        <v>44.062599999999996</v>
-      </c>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-    </row>
-    <row r="13" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12">
-        <v>37633</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>72</v>
-      </c>
-      <c r="F13" s="10">
-        <v>99</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10">
-        <v>3</v>
-      </c>
-      <c r="J13" s="10">
-        <v>3</v>
-      </c>
-      <c r="M13" s="9">
-        <v>160</v>
-      </c>
-      <c r="N13" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="0"/>
-        <v>57.419999999999995</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="2"/>
-        <v>41.342399999999998</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>4</v>
-      </c>
-      <c r="R13" s="24">
-        <v>3</v>
-      </c>
-      <c r="S13" s="24">
-        <v>3</v>
-      </c>
-      <c r="T13" s="24">
-        <v>4</v>
-      </c>
-      <c r="U13" s="24">
-        <v>4</v>
-      </c>
-      <c r="V13" s="24">
-        <v>3</v>
-      </c>
-      <c r="W13" s="24">
-        <v>4</v>
-      </c>
-      <c r="X13" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="24">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="28">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="AF13" s="28">
-        <f t="shared" si="4"/>
-        <v>3.8333333333333335</v>
+      <c r="AF13" s="9">
+        <f>_xlfn.RANK.AVG(AD13,$AD$2:$AD$14)</f>
+        <v>9.5</v>
       </c>
       <c r="AG13" s="9">
         <f>_xlfn.RANK.AVG(AE13,$AE$2:$AE$14)</f>
-        <v>9.5</v>
-      </c>
-      <c r="AH13" s="9">
-        <f>_xlfn.RANK.AVG(AF13,$AF$2:$AF$14)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12">
-        <v>37634</v>
-      </c>
-      <c r="D14" s="31">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>73</v>
-      </c>
-      <c r="F14" s="10">
-        <v>91</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="30">
+        <v>71.3</v>
+      </c>
+      <c r="F14" s="30">
+        <v>173</v>
+      </c>
+      <c r="G14" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="L14" s="31">
+        <v>0.72</v>
+      </c>
       <c r="M14" s="9">
-        <v>170</v>
-      </c>
-      <c r="N14" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="3"/>
+        <v>100.33999999999999</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="0"/>
-        <v>52.779999999999994</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="2"/>
-        <v>38.529399999999995</v>
-      </c>
-      <c r="Q14" s="24">
+        <f t="shared" si="4"/>
+        <v>71.542419999999993</v>
+      </c>
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="R14" s="24">
-        <v>4</v>
-      </c>
-      <c r="S14" s="24">
-        <v>4</v>
-      </c>
-      <c r="T14" s="24">
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
         <v>3.5</v>
       </c>
-      <c r="U14" s="24">
-        <v>4</v>
-      </c>
-      <c r="V14" s="24">
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
         <v>4.5</v>
       </c>
-      <c r="W14" s="24">
+      <c r="V14">
         <v>3.5</v>
       </c>
-      <c r="X14" s="24">
+      <c r="W14">
         <v>3.5</v>
       </c>
-      <c r="Y14" s="24">
+      <c r="X14">
         <v>3.5</v>
       </c>
-      <c r="Z14" s="24">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="24">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="24">
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
         <v>5</v>
       </c>
-      <c r="AD14" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AF14" s="28">
-        <f t="shared" si="4"/>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="27">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE14" s="27">
+        <f t="shared" si="6"/>
         <v>4.083333333333333</v>
+      </c>
+      <c r="AF14" s="9">
+        <f>_xlfn.RANK.AVG(AD14,$AD$2:$AD$14)</f>
+        <v>4</v>
       </c>
       <c r="AG14" s="9">
         <f>_xlfn.RANK.AVG(AE14,$AE$2:$AE$14)</f>
-        <v>4</v>
-      </c>
-      <c r="AH14" s="9">
-        <f>_xlfn.RANK.AVG(AF14,$AF$2:$AF$14)</f>
         <v>2</v>
       </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5376,660 +5476,660 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>81</v>
+      <c r="A3" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="24">
-        <v>3</v>
-      </c>
-      <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24">
-        <v>3</v>
-      </c>
-      <c r="E4" s="24">
-        <v>4</v>
-      </c>
-      <c r="F4" s="24">
-        <v>4</v>
-      </c>
-      <c r="G4" s="24">
-        <v>3</v>
-      </c>
-      <c r="H4" s="24">
-        <v>3</v>
-      </c>
-      <c r="I4" s="24">
-        <v>4</v>
-      </c>
-      <c r="J4" s="24">
-        <v>4</v>
-      </c>
-      <c r="K4" s="24">
-        <v>4</v>
-      </c>
-      <c r="L4" s="24">
-        <v>3</v>
-      </c>
-      <c r="M4" s="24">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="24">
-        <v>3</v>
-      </c>
-      <c r="O4" s="24">
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="24">
+        <v>32</v>
+      </c>
+      <c r="B5">
         <v>3.5</v>
       </c>
-      <c r="C5" s="24">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>3.5</v>
       </c>
-      <c r="E5" s="24">
-        <v>4</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>3.5</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5">
         <v>3.5</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5">
         <v>3.5</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5">
         <v>3.5</v>
       </c>
-      <c r="J5" s="24">
-        <v>4</v>
-      </c>
-      <c r="K5" s="24">
-        <v>3</v>
-      </c>
-      <c r="L5" s="24">
-        <v>4</v>
-      </c>
-      <c r="M5" s="24">
-        <v>4</v>
-      </c>
-      <c r="N5" s="24">
-        <v>4</v>
-      </c>
-      <c r="O5" s="24">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="24">
+        <v>58</v>
+      </c>
+      <c r="B6">
         <v>3.5</v>
       </c>
-      <c r="C6" s="24">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24">
-        <v>3</v>
-      </c>
-      <c r="E6" s="24">
-        <v>4</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>3.5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6">
         <v>3.5</v>
       </c>
-      <c r="H6" s="24">
-        <v>4</v>
-      </c>
-      <c r="I6" s="24">
-        <v>4</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>3.5</v>
       </c>
-      <c r="K6" s="24">
-        <v>4</v>
-      </c>
-      <c r="L6" s="24">
-        <v>4</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
         <v>4.5</v>
       </c>
-      <c r="N6" s="24">
-        <v>4</v>
-      </c>
-      <c r="O6" s="24">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="24">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
-        <v>4</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="24">
-        <v>4</v>
-      </c>
-      <c r="G7" s="24">
-        <v>4</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="24">
-        <v>3</v>
-      </c>
-      <c r="J7" s="24">
-        <v>4</v>
-      </c>
-      <c r="K7" s="24">
-        <v>4</v>
-      </c>
-      <c r="L7" s="24">
-        <v>3</v>
-      </c>
-      <c r="M7" s="24">
-        <v>4</v>
-      </c>
-      <c r="N7" s="24">
-        <v>4</v>
-      </c>
-      <c r="O7" s="24">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="24">
-        <v>4</v>
-      </c>
-      <c r="C8" s="24">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24">
-        <v>4</v>
-      </c>
-      <c r="E8" s="24">
-        <v>4</v>
-      </c>
-      <c r="F8" s="24">
-        <v>4</v>
-      </c>
-      <c r="G8" s="24">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="24">
-        <v>3</v>
-      </c>
-      <c r="J8" s="24">
-        <v>4</v>
-      </c>
-      <c r="K8" s="24">
-        <v>4</v>
-      </c>
-      <c r="L8" s="24">
-        <v>4</v>
-      </c>
-      <c r="M8" s="24">
-        <v>3</v>
-      </c>
-      <c r="N8" s="24">
-        <v>4</v>
-      </c>
-      <c r="O8" s="24">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="24">
-        <v>4</v>
-      </c>
-      <c r="C9" s="24">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24">
-        <v>4</v>
-      </c>
-      <c r="E9" s="24">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="24">
-        <v>4</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="24">
-        <v>4</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="24">
-        <v>4</v>
-      </c>
-      <c r="L9" s="24">
-        <v>4</v>
-      </c>
-      <c r="M9" s="24">
-        <v>4</v>
-      </c>
-      <c r="N9" s="24">
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="24">
+        <v>34</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="24">
-        <v>3</v>
-      </c>
-      <c r="D10" s="24">
-        <v>4</v>
-      </c>
-      <c r="E10" s="24">
-        <v>3</v>
-      </c>
-      <c r="F10" s="24">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24">
-        <v>4</v>
-      </c>
-      <c r="H10" s="24">
-        <v>3</v>
-      </c>
-      <c r="I10" s="24">
-        <v>3</v>
-      </c>
-      <c r="J10" s="24">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" s="24">
-        <v>4</v>
-      </c>
-      <c r="L10" s="24">
-        <v>4</v>
-      </c>
-      <c r="M10" s="24">
-        <v>3</v>
-      </c>
-      <c r="N10" s="24">
-        <v>4</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="24">
-        <v>4</v>
-      </c>
-      <c r="C11" s="24">
-        <v>3</v>
-      </c>
-      <c r="D11" s="24">
-        <v>4</v>
-      </c>
-      <c r="E11" s="24">
-        <v>4</v>
-      </c>
-      <c r="F11" s="24">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24">
-        <v>3</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4</v>
-      </c>
-      <c r="I11" s="24">
-        <v>3</v>
-      </c>
-      <c r="J11" s="24">
-        <v>4</v>
-      </c>
-      <c r="K11" s="24">
-        <v>3</v>
-      </c>
-      <c r="L11" s="24">
-        <v>4</v>
-      </c>
-      <c r="M11" s="24">
-        <v>3</v>
-      </c>
-      <c r="N11" s="24">
-        <v>4</v>
-      </c>
-      <c r="O11" s="24">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
-      <c r="C12" s="24">
-        <v>4</v>
-      </c>
-      <c r="D12" s="24">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>3.5</v>
       </c>
-      <c r="F12" s="24">
-        <v>4</v>
-      </c>
-      <c r="G12" s="24">
-        <v>4</v>
-      </c>
-      <c r="H12" s="24">
-        <v>4</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>3.5</v>
       </c>
-      <c r="J12" s="24">
-        <v>4</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
         <v>3.5</v>
       </c>
-      <c r="L12" s="24">
-        <v>3</v>
-      </c>
-      <c r="M12" s="24">
-        <v>4</v>
-      </c>
-      <c r="N12" s="24">
-        <v>3</v>
-      </c>
-      <c r="O12" s="24">
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="24">
+        <v>27</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="24">
-        <v>3</v>
-      </c>
-      <c r="F13" s="24">
-        <v>3</v>
-      </c>
-      <c r="G13" s="24">
-        <v>3</v>
-      </c>
-      <c r="H13" s="24">
-        <v>3</v>
-      </c>
-      <c r="I13" s="24">
-        <v>3</v>
-      </c>
-      <c r="J13" s="24">
-        <v>4</v>
-      </c>
-      <c r="K13" s="24">
-        <v>3</v>
-      </c>
-      <c r="L13" s="24">
-        <v>4</v>
-      </c>
-      <c r="M13" s="24">
-        <v>4</v>
-      </c>
-      <c r="N13" s="24">
-        <v>3</v>
-      </c>
-      <c r="O13" s="24">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="24">
-        <v>4</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" s="24">
-        <v>3</v>
-      </c>
-      <c r="E14" s="24">
-        <v>4</v>
-      </c>
-      <c r="F14" s="24">
-        <v>4</v>
-      </c>
-      <c r="G14" s="24">
-        <v>3</v>
-      </c>
-      <c r="H14" s="24">
-        <v>4</v>
-      </c>
-      <c r="I14" s="24">
-        <v>3</v>
-      </c>
-      <c r="J14" s="24">
-        <v>4</v>
-      </c>
-      <c r="K14" s="24">
-        <v>4</v>
-      </c>
-      <c r="L14" s="24">
-        <v>4</v>
-      </c>
-      <c r="M14" s="24">
-        <v>4</v>
-      </c>
-      <c r="N14" s="24">
-        <v>3</v>
-      </c>
-      <c r="O14" s="24">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="24">
+        <v>30</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="24">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24">
-        <v>4</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
         <v>3.5</v>
       </c>
-      <c r="F15" s="24">
-        <v>4</v>
-      </c>
-      <c r="G15" s="24">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <v>4.5</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15">
         <v>3.5</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15">
         <v>3.5</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15">
         <v>3.5</v>
       </c>
-      <c r="K15" s="24">
-        <v>4</v>
-      </c>
-      <c r="L15" s="24">
-        <v>4</v>
-      </c>
-      <c r="M15" s="24">
-        <v>4</v>
-      </c>
-      <c r="N15" s="24">
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="24">
+        <v>82</v>
+      </c>
+      <c r="B16">
         <v>3.8</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16">
         <v>3.5333333333333332</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16">
         <v>3.4375</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16">
         <v>3.875</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16">
         <v>3.875</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16">
         <v>3.75</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16">
         <v>3.875</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16">
         <v>3.4375</v>
       </c>
-      <c r="J16" s="24">
-        <v>4</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
         <v>3.6875</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16">
         <v>3.75</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16">
         <v>3.6923076923076925</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16">
         <v>3.8333333333333335</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16">
         <v>3.75</v>
       </c>
     </row>
@@ -6053,163 +6153,163 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6232,58 +6332,58 @@
   <sheetData>
     <row r="1" spans="1:24" s="23" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
@@ -6297,10 +6397,10 @@
         <v>45636.892523148148</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="19">
         <v>3</v>
@@ -6337,7 +6437,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -6351,10 +6451,10 @@
         <v>45636.899305555555</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6387,7 +6487,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -6401,10 +6501,10 @@
         <v>45636.91138888889</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
@@ -6443,7 +6543,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -6457,10 +6557,10 @@
         <v>45636.918946759259</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
@@ -6497,7 +6597,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -6511,10 +6611,10 @@
         <v>45607.607951388891</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -6559,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -6573,10 +6673,10 @@
         <v>45607.612893518519</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="19">
         <v>5</v>
@@ -6621,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -6635,10 +6735,10 @@
         <v>45607.616203703707</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="19">
         <v>4</v>
@@ -6683,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -6697,10 +6797,10 @@
         <v>45607.722337962965</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="19">
         <v>4</v>
@@ -6745,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -6759,10 +6859,10 @@
         <v>45607.726018518515</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="19">
         <v>4</v>
@@ -6807,7 +6907,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -6821,10 +6921,10 @@
         <v>45607.728530092594</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="19">
         <v>5</v>
@@ -6869,7 +6969,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -6883,55 +6983,55 @@
         <v>45607.732418981483</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
+      <c r="J12" s="19">
+        <v>4</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19">
+        <v>4</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4</v>
+      </c>
+      <c r="N12" s="19">
+        <v>4</v>
+      </c>
+      <c r="O12" s="19">
+        <v>4</v>
+      </c>
+      <c r="P12" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>4</v>
+      </c>
+      <c r="R12" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="19">
-        <v>4</v>
-      </c>
-      <c r="E12" s="19">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4</v>
-      </c>
-      <c r="H12" s="19">
-        <v>4</v>
-      </c>
-      <c r="I12" s="19">
-        <v>3</v>
-      </c>
-      <c r="J12" s="19">
-        <v>4</v>
-      </c>
-      <c r="K12" s="19">
-        <v>3</v>
-      </c>
-      <c r="L12" s="19">
-        <v>4</v>
-      </c>
-      <c r="M12" s="19">
-        <v>4</v>
-      </c>
-      <c r="N12" s="19">
-        <v>4</v>
-      </c>
-      <c r="O12" s="19">
-        <v>4</v>
-      </c>
-      <c r="P12" s="19">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>4</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -6945,10 +7045,10 @@
         <v>45607.736215277779</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="19">
         <v>4</v>
@@ -6993,7 +7093,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -7007,10 +7107,10 @@
         <v>45607.741226851853</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="19">
         <v>4</v>
@@ -7055,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -7069,10 +7169,10 @@
         <v>45607.749212962961</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="19">
         <v>3</v>
@@ -7117,7 +7217,7 @@
         <v>3</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -7131,10 +7231,10 @@
         <v>45607.758518518516</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="19">
         <v>5</v>
@@ -7179,7 +7279,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -7193,10 +7293,10 @@
         <v>45607.774409722224</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="19">
         <v>4</v>
@@ -7241,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>

--- a/master_c4g_24.xlsx
+++ b/master_c4g_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakefarren-price/Google Drive/RYA - Analysis/Crew4Gold_24/c4g/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA722D-61A6-BD4B-9304-1333B1467DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF6599-7CFB-9548-A1E3-328DC3312B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="-27680" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="Feedback" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overall!$B$24:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overall!$B$23:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="15" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -336,15 +336,9 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Potential Score</t>
-  </si>
-  <si>
     <t>Behaviour Score</t>
   </si>
   <si>
-    <t>Potential Rank</t>
-  </si>
-  <si>
     <t>Behaviour Rank</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
     <t xml:space="preserve"> 06/08/2005</t>
   </si>
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14/05/2003</t>
   </si>
   <si>
@@ -607,6 +598,87 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Katy Jenkins (Helm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>11/15/2024 7:21:38</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:23:50</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:28:42</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:33:04</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:36:46</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:39:49</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:44:09</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:46:43</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:51:10</t>
+  </si>
+  <si>
+    <t>11/15/2024 7:55:28</t>
+  </si>
+  <si>
+    <t>11/15/2024 8:00:29</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:37:39</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:38:33</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:40:08</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:41:36</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:42:22</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:43:20</t>
+  </si>
+  <si>
+    <t>11/15/2024 16:44:04</t>
+  </si>
+  <si>
+    <t>Racing Score</t>
+  </si>
+  <si>
+    <t>Racing Rank</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -616,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,8 +746,15 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +926,114 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC77D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1DA81"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9806F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E383"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2D07F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E884"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEDF81"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE683"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB579"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBA476"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83C77D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EC17C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98CE7F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9874"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBAF78"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -891,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -971,9 +1158,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,8 +1180,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1008,9 +1193,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,11 +1262,30 @@
     <xf numFmtId="10" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="175" fontId="10" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="47" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="40">
     <dxf>
       <alignment wrapText="1" indent="0"/>
     </dxf>
@@ -1146,91 +1347,7 @@
       <numFmt numFmtId="175" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="175" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1" indent="0"/>
@@ -1303,13 +1420,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jake Farren-Price" refreshedDate="45611.809847453704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{B6655AF1-EBFA-5841-AFA2-DC58D442DE12}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jake Farren-Price" refreshedDate="45613.847207986109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{B6655AF1-EBFA-5841-AFA2-DC58D442DE12}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1048576" sheet="Feedback"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Timestamp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-11-11T14:35:27" maxDate="2024-12-10T22:03:17"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2024-11-11T14:35:27" maxDate="2024-12-11T11:57:39"/>
     </cacheField>
     <cacheField name="Coach Name" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1362,13 +1479,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="Behaviours [Will to stretch and challenge themselves]" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Behaviours [Non-dependent learner]" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="Behaviours [Commitment and consistency shown]" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="Behaviours [Preparing and reviewing training]" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
@@ -1747,7 +1864,7 @@
     <x v="15"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:10:01"/>
     <s v="washy"/>
     <x v="4"/>
     <n v="1"/>
@@ -1767,7 +1884,7 @@
     <x v="16"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:15:32"/>
     <s v="walsh"/>
     <x v="1"/>
     <n v="3"/>
@@ -1787,7 +1904,7 @@
     <x v="17"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:18:52"/>
     <s v="walsh"/>
     <x v="3"/>
     <n v="3"/>
@@ -1807,7 +1924,7 @@
     <x v="18"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:22:51"/>
     <s v="walsh"/>
     <x v="7"/>
     <n v="3"/>
@@ -1827,7 +1944,7 @@
     <x v="19"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:30:38"/>
     <s v="walsh"/>
     <x v="2"/>
     <n v="3"/>
@@ -1847,7 +1964,7 @@
     <x v="20"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:38:37"/>
     <s v="walsh"/>
     <x v="6"/>
     <n v="3"/>
@@ -1867,7 +1984,7 @@
     <x v="21"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:45:03"/>
     <s v="walsh"/>
     <x v="8"/>
     <n v="3"/>
@@ -1887,7 +2004,7 @@
     <x v="22"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:50:26"/>
     <s v="walsh"/>
     <x v="10"/>
     <n v="2"/>
@@ -1907,7 +2024,7 @@
     <x v="23"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:53:58"/>
     <s v="Walshy"/>
     <x v="5"/>
     <n v="3"/>
@@ -1927,7 +2044,7 @@
     <x v="24"/>
   </r>
   <r>
-    <m/>
+    <d v="2024-12-11T11:57:39"/>
     <s v="walsh"/>
     <x v="0"/>
     <n v="3"/>
@@ -1947,7 +2064,7 @@
     <x v="25"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:21:38"/>
     <s v="Jack"/>
     <x v="4"/>
     <m/>
@@ -1967,7 +2084,7 @@
     <x v="26"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:23:50"/>
     <s v="Jack"/>
     <x v="1"/>
     <m/>
@@ -1987,7 +2104,7 @@
     <x v="27"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:28:42"/>
     <s v="Jack"/>
     <x v="5"/>
     <m/>
@@ -2007,7 +2124,7 @@
     <x v="28"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:33:04"/>
     <s v="Jack"/>
     <x v="3"/>
     <m/>
@@ -2027,7 +2144,7 @@
     <x v="29"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:36:46"/>
     <s v="Jack"/>
     <x v="6"/>
     <m/>
@@ -2047,7 +2164,7 @@
     <x v="30"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:39:49"/>
     <s v="Jack"/>
     <x v="7"/>
     <m/>
@@ -2067,7 +2184,7 @@
     <x v="31"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:44:09"/>
     <s v="Jack"/>
     <x v="8"/>
     <m/>
@@ -2087,7 +2204,7 @@
     <x v="32"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:46:43"/>
     <s v="Jack"/>
     <x v="9"/>
     <m/>
@@ -2107,7 +2224,7 @@
     <x v="33"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:51:10"/>
     <s v="Jack"/>
     <x v="10"/>
     <m/>
@@ -2127,7 +2244,7 @@
     <x v="34"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 7:55:28"/>
     <s v="Jack"/>
     <x v="2"/>
     <m/>
@@ -2147,7 +2264,7 @@
     <x v="35"/>
   </r>
   <r>
-    <m/>
+    <s v="11/15/2024 8:00:29"/>
     <s v="Jack"/>
     <x v="0"/>
     <m/>
@@ -2167,143 +2284,143 @@
     <x v="36"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:37:39"/>
+    <s v="Chris Taylor"/>
+    <x v="4"/>
+    <n v="2"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:38:33"/>
+    <s v="Chris Taylor"/>
+    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:40:08"/>
+    <s v="Chris Taylor"/>
+    <x v="3"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:41:36"/>
+    <s v="Chris Taylor"/>
+    <x v="6"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:42:22"/>
+    <s v="Chris Taylor"/>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:43:20"/>
+    <s v="Chris Taylor"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
     <x v="37"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="11/15/2024 16:44:04"/>
+    <s v="Chris Taylor"/>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
     <x v="37"/>
   </r>
   <r>
@@ -3770,7 +3887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:O16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -3917,10 +4034,10 @@
     <dataField name="Average of Behaviours [Preparing and reviewing training]" fld="16" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="67">
+    <format dxfId="39">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="14">
@@ -3942,7 +4059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -3950,6 +4067,30 @@
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="2" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3963,8 +4104,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4048,7 +4189,7 @@
     <field x="2"/>
     <field x="17"/>
   </rowFields>
-  <rowItems count="52">
+  <rowItems count="59">
     <i>
       <x/>
     </i>
@@ -4063,6 +4204,9 @@
     </i>
     <i r="1">
       <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="19"/>
@@ -4080,6 +4224,9 @@
       <x v="10"/>
     </i>
     <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
       <x v="21"/>
     </i>
     <i r="1">
@@ -4090,6 +4237,9 @@
     </i>
     <i r="1">
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="22"/>
@@ -4114,6 +4264,9 @@
     </i>
     <i r="1">
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="34"/>
@@ -4164,6 +4317,9 @@
       <x v="13"/>
     </i>
     <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
       <x v="17"/>
     </i>
     <i r="1">
@@ -4174,6 +4330,9 @@
     </i>
     <i r="1">
       <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="23"/>
@@ -4189,6 +4348,9 @@
     </i>
     <i r="1">
       <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="18"/>
@@ -4210,23 +4372,23 @@
     <i/>
   </colItems>
   <formats count="17">
-    <format dxfId="65">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="36">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4238,7 +4400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4251,7 +4413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4264,7 +4426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4276,7 +4438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4288,7 +4450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4300,7 +4462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4312,7 +4474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4324,7 +4486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4337,7 +4499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4349,7 +4511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4361,7 +4523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4374,7 +4536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4687,11 +4849,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L21" sqref="L21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4699,23 +4861,23 @@
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="9" customWidth="1"/>
-    <col min="15" max="16" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.1640625" style="9" customWidth="1"/>
-    <col min="32" max="32" width="17.1640625" customWidth="1"/>
-    <col min="33" max="33" width="17.5" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="4" max="6" width="15" style="9" customWidth="1"/>
+    <col min="7" max="8" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="9" customWidth="1"/>
+    <col min="16" max="17" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" style="9" customWidth="1"/>
+    <col min="33" max="33" width="17.1640625" customWidth="1"/>
+    <col min="34" max="34" width="17.5" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4726,103 +4888,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AF1" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AH1" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>74</v>
       </c>
@@ -4830,104 +4995,110 @@
         <v>34</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="9">
         <v>21</v>
       </c>
-      <c r="F2" s="66">
+      <c r="E2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="65">
         <v>60</v>
       </c>
-      <c r="G2" s="66">
+      <c r="H2" s="65">
         <v>160</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="67">
+        <v>107</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="66">
         <v>0.01</v>
       </c>
-      <c r="N2" s="9">
-        <f>_xlfn.RANK.AVG(M2,$M$2:$M$13)</f>
-        <v>11.5</v>
-      </c>
-      <c r="O2" s="10">
-        <f>0.58*G2</f>
+      <c r="O2" s="9">
+        <f>_xlfn.RANK.AVG(N2,$N$2:$N$13)</f>
+        <v>12</v>
+      </c>
+      <c r="P2" s="10">
+        <f>0.58*H2</f>
         <v>92.8</v>
       </c>
-      <c r="P2" s="10">
-        <f>O2*F2/100</f>
+      <c r="Q2" s="10">
+        <f>P2*G2/100</f>
         <v>55.68</v>
       </c>
-      <c r="Q2" s="33">
-        <v>3</v>
-      </c>
-      <c r="R2" s="33">
-        <v>3</v>
-      </c>
-      <c r="S2" s="33">
-        <v>3</v>
-      </c>
-      <c r="T2" s="33">
-        <v>4</v>
-      </c>
-      <c r="U2" s="33">
-        <v>4</v>
-      </c>
-      <c r="V2" s="33">
-        <v>3</v>
-      </c>
-      <c r="W2" s="33">
-        <v>3</v>
-      </c>
-      <c r="X2" s="33">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="33">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="33">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="33">
+      <c r="R2" s="67">
+        <v>3</v>
+      </c>
+      <c r="S2" s="67">
+        <v>3</v>
+      </c>
+      <c r="T2" s="67">
+        <v>3</v>
+      </c>
+      <c r="U2" s="68">
+        <v>4</v>
+      </c>
+      <c r="V2" s="68">
+        <v>4</v>
+      </c>
+      <c r="W2" s="67">
+        <v>3</v>
+      </c>
+      <c r="X2" s="67">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="68">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="68">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="68">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="67">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="69">
         <v>2</v>
       </c>
-      <c r="AC2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="26">
-        <f>AVERAGE(Q2:X2)</f>
+      <c r="AD2" s="67">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="67">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="26">
+        <f>AVERAGE(R2:Y2)</f>
         <v>3.375</v>
       </c>
-      <c r="AF2" s="26">
-        <f>AVERAGE(Y2:AD2)</f>
+      <c r="AG2" s="26">
+        <f>AVERAGE(Z2:AE2)</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="AG2" s="9">
-        <f t="shared" ref="AG2:AG13" si="0">_xlfn.RANK.AVG(AE2,$AE$2:$AE$13)</f>
+      <c r="AH2" s="9">
+        <f t="shared" ref="AH2:AH13" si="0">_xlfn.RANK.AVG(AF2,$AF$2:$AF$13)</f>
         <v>6</v>
       </c>
-      <c r="AH2" s="9">
-        <f t="shared" ref="AH2:AH13" si="1">_xlfn.RANK.AVG(AF2,$AF$2:$AF$13)</f>
+      <c r="AI2" s="9">
+        <f t="shared" ref="AI2:AI13" si="1">_xlfn.RANK.AVG(AG2,$AG$2:$AG$13)</f>
         <v>12</v>
       </c>
-      <c r="AI2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
@@ -4935,1127 +5106,1169 @@
         <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="9">
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="38">
+        <v>106</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="38">
         <v>71.5</v>
       </c>
-      <c r="G3" s="38">
+      <c r="H3" s="38">
         <v>173</v>
       </c>
-      <c r="H3" s="40">
+      <c r="I3" s="40">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I3" s="40">
+      <c r="J3" s="40">
         <v>0.9</v>
       </c>
-      <c r="J3" s="40">
+      <c r="K3" s="40">
         <v>3.3</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="L3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="42">
+        <v>107</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="42">
         <v>0.73</v>
       </c>
-      <c r="N3" s="9">
-        <f>_xlfn.RANK.AVG(M3,$M$2:$M$13)</f>
-        <v>6</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O11" si="2">0.58*G3</f>
+      <c r="O3" s="9">
+        <f>_xlfn.RANK.AVG(N3,$N$2:$N$13)</f>
+        <v>7</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P8" si="2">0.58*H3</f>
         <v>100.33999999999999</v>
       </c>
-      <c r="P3" s="10">
-        <f t="shared" ref="P3:P11" si="3">O3*F3/100</f>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q8" si="3">P3*G3/100</f>
         <v>71.743099999999998</v>
       </c>
-      <c r="Q3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="R3" s="33">
-        <v>3</v>
-      </c>
-      <c r="S3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="T3" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="U3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="V3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="W3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="X3" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="Y3" s="33">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="33">
-        <v>3.25</v>
-      </c>
-      <c r="AA3" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AB3" s="33">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD3" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AE3" s="26">
-        <f t="shared" ref="AE3:AE13" si="4">AVERAGE(Q3:X3)</f>
-        <v>3.333333333333333</v>
+      <c r="R3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="S3" s="67">
+        <v>3</v>
+      </c>
+      <c r="T3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="U3" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="V3" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="W3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="X3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="Y3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="Z3" s="68">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="AB3" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="AC3" s="68">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="AE3" s="71">
+        <v>3.8</v>
       </c>
       <c r="AF3" s="26">
-        <f t="shared" ref="AF3:AF13" si="5">AVERAGE(Y3:AD3)</f>
-        <v>3.9305555555555554</v>
-      </c>
-      <c r="AG3" s="9">
+        <f t="shared" ref="AF3:AF13" si="4">AVERAGE(R3:Y3)</f>
+        <v>3.35</v>
+      </c>
+      <c r="AG3" s="26">
+        <f t="shared" ref="AG3:AG13" si="5">AVERAGE(Z3:AE3)</f>
+        <v>3.9499999999999997</v>
+      </c>
+      <c r="AH3" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AI3" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="9">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="38">
+        <v>56.9</v>
+      </c>
+      <c r="H4" s="38">
+        <v>168</v>
+      </c>
+      <c r="I4" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1</v>
+      </c>
+      <c r="K4" s="40">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="O4" s="9">
+        <f>_xlfn.RANK.AVG(N4,$N$2:$N$13)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="2"/>
+        <v>97.44</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="3"/>
+        <v>55.443359999999991</v>
+      </c>
+      <c r="R4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="S4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="T4" s="67">
+        <v>3</v>
+      </c>
+      <c r="U4" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="V4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="W4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="X4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="Y4" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="Z4" s="74">
+        <v>3.6</v>
+      </c>
+      <c r="AA4" s="68">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="AC4" s="68">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="AE4" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AF4" s="26">
+        <f t="shared" si="4"/>
+        <v>3.5125000000000002</v>
+      </c>
+      <c r="AG4" s="26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AH4" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI4" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="38">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H5" s="38">
+        <v>167.1</v>
+      </c>
+      <c r="I5" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1</v>
+      </c>
+      <c r="K5" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="9">
+        <f>_xlfn.RANK.AVG(N5,$N$2:$N$13)</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="2"/>
+        <v>96.917999999999992</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="3"/>
+        <v>66.00115799999999</v>
+      </c>
+      <c r="R5" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="S5" s="68">
+        <v>4</v>
+      </c>
+      <c r="T5" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="U5" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="V5" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="W5" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="X5" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="Y5" s="67">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AA5" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AB5" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="AD5" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="AE5" s="67">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="26">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="AG5" s="26">
+        <f t="shared" si="5"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="AH5" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="38">
+        <v>70.3</v>
+      </c>
+      <c r="H6" s="38">
+        <v>168.5</v>
+      </c>
+      <c r="I6" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O6" s="9">
+        <f>_xlfn.RANK.AVG(N6,$N$2:$N$13)</f>
+        <v>11</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="2"/>
+        <v>97.72999999999999</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="3"/>
+        <v>68.704189999999983</v>
+      </c>
+      <c r="R6" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="S6" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="T6" s="67">
+        <v>3</v>
+      </c>
+      <c r="U6" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="V6" s="67">
+        <v>3</v>
+      </c>
+      <c r="W6" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="X6" s="68">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="Z6" s="67">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="AB6" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AC6" s="67">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="68">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="68">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="26">
+        <f t="shared" si="4"/>
+        <v>3.3125</v>
+      </c>
+      <c r="AG6" s="26">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="AH6" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI6" s="9">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="38">
+        <v>63.35</v>
+      </c>
+      <c r="H7" s="38">
+        <v>164.1</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="O7" s="9">
+        <f>_xlfn.RANK.AVG(N7,$N$2:$N$13)</f>
+        <v>5</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="2"/>
+        <v>95.177999999999983</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="3"/>
+        <v>60.295262999999984</v>
+      </c>
+      <c r="R7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="S7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="T7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="U7" s="68">
+        <v>4</v>
+      </c>
+      <c r="V7" s="68">
+        <v>4</v>
+      </c>
+      <c r="W7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="X7" s="68">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="Z7" s="68">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="AB7" s="68">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AD7" s="80">
+        <v>4.7</v>
+      </c>
+      <c r="AE7" s="68">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="26">
+        <f t="shared" si="4"/>
+        <v>3.6875</v>
+      </c>
+      <c r="AG7" s="26">
+        <f t="shared" si="5"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="AH7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="38">
+        <v>62.35</v>
+      </c>
+      <c r="H8" s="38">
+        <v>168.3</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="9">
+        <f>_xlfn.RANK.AVG(N8,$N$2:$N$13)</f>
+        <v>9</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="2"/>
+        <v>97.614000000000004</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="3"/>
+        <v>60.862329000000003</v>
+      </c>
+      <c r="R8" s="68">
+        <v>4</v>
+      </c>
+      <c r="S8" s="67">
+        <v>3</v>
+      </c>
+      <c r="T8" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="U8" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="V8" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="W8" s="67">
+        <v>3</v>
+      </c>
+      <c r="X8" s="67">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="67">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="81">
+        <v>4.3</v>
+      </c>
+      <c r="AA8" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AB8" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AC8" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AD8" s="68">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="67">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="26">
+        <f t="shared" si="4"/>
+        <v>3.1875</v>
+      </c>
+      <c r="AG8" s="26">
+        <f t="shared" si="5"/>
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="AH8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AI8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="38">
+        <v>72.05</v>
+      </c>
+      <c r="H9" s="38">
+        <v>176.6</v>
+      </c>
+      <c r="I9" s="40">
+        <v>4</v>
+      </c>
+      <c r="J9" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0.65</v>
+      </c>
+      <c r="O9" s="9">
+        <f>_xlfn.RANK.AVG(N9,$N$2:$N$13)</f>
+        <v>10</v>
+      </c>
+      <c r="P9" s="10">
+        <f>0.58*H9</f>
+        <v>102.42799999999998</v>
+      </c>
+      <c r="Q9" s="10">
+        <f>P9*G9/100</f>
+        <v>73.799373999999986</v>
+      </c>
+      <c r="R9" s="67">
+        <v>3</v>
+      </c>
+      <c r="S9" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="T9" s="67">
+        <v>3</v>
+      </c>
+      <c r="U9" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="V9" s="67">
+        <v>3</v>
+      </c>
+      <c r="W9" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="X9" s="67">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="Z9" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="AA9" s="67">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AC9" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="AD9" s="68">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AF9" s="26">
+        <f t="shared" si="4"/>
+        <v>2.875</v>
+      </c>
+      <c r="AG9" s="26">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="AH9" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AI9" s="9">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="9">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="31">
+        <v>62.3</v>
+      </c>
+      <c r="H10" s="31">
+        <v>164.8</v>
+      </c>
+      <c r="I10" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="30">
+        <v>3.9</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="43">
+        <v>0.79</v>
+      </c>
+      <c r="O10" s="9">
+        <f>_xlfn.RANK.AVG(N10,$N$2:$N$13)</f>
+        <v>5</v>
+      </c>
+      <c r="P10" s="10">
+        <f>0.58*H10</f>
+        <v>95.584000000000003</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>P10*G10/100</f>
+        <v>59.548832000000004</v>
+      </c>
+      <c r="R10" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="S10" s="68">
+        <v>4</v>
+      </c>
+      <c r="T10" s="67">
+        <v>3</v>
+      </c>
+      <c r="U10" s="67">
+        <v>3</v>
+      </c>
+      <c r="V10" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="W10" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="X10" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="Y10" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AA10" s="67">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="67">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="68">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="67">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AF10" s="26">
+        <f t="shared" si="4"/>
+        <v>3.5124999999999997</v>
+      </c>
+      <c r="AG10" s="26">
+        <f t="shared" si="5"/>
+        <v>3.3833333333333333</v>
+      </c>
+      <c r="AH10" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI10" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="29">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="H11" s="29">
+        <v>173.4</v>
+      </c>
+      <c r="I11" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="J11" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0.79</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" ref="O11:O12" si="6">_xlfn.RANK.AVG(N11,$N$2:$N$13)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" ref="P11:P12" si="7">0.58*H11</f>
+        <v>100.572</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" ref="Q11:Q13" si="8">P11*G11/100</f>
+        <v>75.831288000000001</v>
+      </c>
+      <c r="R11" s="82">
+        <v>1.7</v>
+      </c>
+      <c r="S11" s="69">
+        <v>2</v>
+      </c>
+      <c r="T11" s="83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="V11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="W11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="X11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="Y11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="Z11" s="67">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="AB11" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="AC11" s="68">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="AE11" s="85">
+        <v>4.8</v>
+      </c>
+      <c r="AF11" s="26">
+        <f t="shared" si="4"/>
+        <v>2.4374999999999996</v>
+      </c>
+      <c r="AG11" s="26">
+        <f t="shared" si="5"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="AH11" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AI11" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="AJ11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="9">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="38">
-        <v>56.9</v>
-      </c>
-      <c r="G4" s="38">
-        <v>168</v>
-      </c>
-      <c r="H4" s="40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I4" s="40">
+      <c r="C12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="9">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="38">
+        <v>68.95</v>
+      </c>
+      <c r="H12" s="38">
+        <v>170.8</v>
+      </c>
+      <c r="I12" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="41">
+        <v>3.6</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J4" s="40">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="N4" s="9">
-        <f t="shared" ref="N4:N13" si="6">_xlfn.RANK.AVG(M4,$M$2:$M$13)</f>
-        <v>2</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="2"/>
-        <v>97.44</v>
-      </c>
-      <c r="P4" s="10">
-        <f t="shared" si="3"/>
-        <v>55.443359999999991</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="R4" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="S4" s="33">
-        <v>3</v>
-      </c>
-      <c r="T4" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="U4" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="V4" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="W4" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="X4" s="33">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="33">
-        <v>3.75</v>
-      </c>
-      <c r="Z4" s="33">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AB4" s="33">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD4" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AE4" s="26">
+      <c r="P12" s="10">
+        <f t="shared" si="7"/>
+        <v>99.063999999999993</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="8"/>
+        <v>68.304628000000008</v>
+      </c>
+      <c r="R12" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="S12" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="T12" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="U12" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="V12" s="75">
+        <v>3.3</v>
+      </c>
+      <c r="W12" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="X12" s="67">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="84">
+        <v>2.7</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AA12" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="AB12" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AC12" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AD12" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AE12" s="68">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="26">
         <f t="shared" si="4"/>
-        <v>3.541666666666667</v>
-      </c>
-      <c r="AF4" s="26">
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="AG12" s="26">
         <f t="shared" si="5"/>
-        <v>4.0138888888888884</v>
-      </c>
-      <c r="AG4" s="9">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="AH12" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AH4" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="9">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="38">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="G5" s="38">
-        <v>167.1</v>
-      </c>
-      <c r="H5" s="40">
-        <v>3.7</v>
-      </c>
-      <c r="I5" s="40">
-        <v>1</v>
-      </c>
-      <c r="J5" s="40">
-        <v>3.7</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="2"/>
-        <v>96.917999999999992</v>
-      </c>
-      <c r="P5" s="10">
-        <f t="shared" si="3"/>
-        <v>66.00115799999999</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="R5" s="33">
-        <v>4</v>
-      </c>
-      <c r="S5" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="T5" s="33">
-        <v>4</v>
-      </c>
-      <c r="U5" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="V5" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="W5" s="33">
-        <v>4</v>
-      </c>
-      <c r="X5" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="Z5" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AA5" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AB5" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AC5" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AD5" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AE5" s="26">
-        <f t="shared" si="4"/>
-        <v>3.625</v>
-      </c>
-      <c r="AF5" s="26">
-        <f t="shared" si="5"/>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="AG5" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="9">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="38">
-        <v>70.3</v>
-      </c>
-      <c r="G6" s="38">
-        <v>168.5</v>
-      </c>
-      <c r="H6" s="40">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I6" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="J6" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="42">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="2"/>
-        <v>97.72999999999999</v>
-      </c>
-      <c r="P6" s="10">
-        <f t="shared" si="3"/>
-        <v>68.704189999999983</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="R6" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="S6" s="33">
-        <v>3</v>
-      </c>
-      <c r="T6" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="U6" s="33">
-        <v>3</v>
-      </c>
-      <c r="V6" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="W6" s="33">
-        <v>4</v>
-      </c>
-      <c r="X6" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="Y6" s="33">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AA6" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AB6" s="33">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="33">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="33">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="26">
-        <f t="shared" si="4"/>
-        <v>3.3125</v>
-      </c>
-      <c r="AF6" s="26">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AH6" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="9">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="38">
-        <v>63.35</v>
-      </c>
-      <c r="G7" s="38">
-        <v>164.1</v>
-      </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="J7" s="40">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="42">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="9">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="2"/>
-        <v>95.177999999999983</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="3"/>
-        <v>60.295262999999984</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>4</v>
-      </c>
-      <c r="R7" s="33">
-        <v>4</v>
-      </c>
-      <c r="S7" s="33">
-        <v>4</v>
-      </c>
-      <c r="T7" s="33">
-        <v>5</v>
-      </c>
-      <c r="U7" s="33">
-        <v>5</v>
-      </c>
-      <c r="V7" s="33">
-        <v>4</v>
-      </c>
-      <c r="W7" s="33">
-        <v>5</v>
-      </c>
-      <c r="X7" s="33">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="Z7" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="AA7" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="AB7" s="33">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="33">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="33">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="26">
-        <f t="shared" si="4"/>
-        <v>4.375</v>
-      </c>
-      <c r="AF7" s="26">
-        <f t="shared" si="5"/>
-        <v>4.416666666666667</v>
-      </c>
-      <c r="AG7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="9">
-        <v>21</v>
-      </c>
-      <c r="F8" s="38">
-        <v>62.35</v>
-      </c>
-      <c r="G8" s="38">
-        <v>168.3</v>
-      </c>
-      <c r="H8" s="40">
-        <v>0</v>
-      </c>
-      <c r="I8" s="40">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="2"/>
-        <v>97.614000000000004</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="3"/>
-        <v>60.862329000000003</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>4</v>
-      </c>
-      <c r="R8" s="33">
-        <v>3</v>
-      </c>
-      <c r="S8" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="T8" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="U8" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="V8" s="33">
-        <v>3</v>
-      </c>
-      <c r="W8" s="33">
-        <v>3</v>
-      </c>
-      <c r="X8" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="Z8" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AA8" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AB8" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AC8" s="33">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="33">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="26">
-        <f t="shared" si="4"/>
-        <v>3.1875</v>
-      </c>
-      <c r="AF8" s="26">
-        <f t="shared" si="5"/>
-        <v>3.7222222222222219</v>
-      </c>
-      <c r="AG8" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AH8" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="9">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="38">
-        <v>72.05</v>
-      </c>
-      <c r="G9" s="38">
-        <v>176.6</v>
-      </c>
-      <c r="H9" s="40">
-        <v>4</v>
-      </c>
-      <c r="I9" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="J9" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="42">
-        <v>0.65</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="O9" s="10">
-        <f>0.58*G9</f>
-        <v>102.42799999999998</v>
-      </c>
-      <c r="P9" s="10">
-        <f>O9*F9/100</f>
-        <v>73.799373999999986</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>3</v>
-      </c>
-      <c r="R9" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="S9" s="33">
-        <v>3</v>
-      </c>
-      <c r="T9" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="U9" s="33">
-        <v>3</v>
-      </c>
-      <c r="V9" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="W9" s="33">
-        <v>3</v>
-      </c>
-      <c r="X9" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="Y9" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="Z9" s="33">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AB9" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AC9" s="33">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AE9" s="26">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AF9" s="26">
-        <f t="shared" si="5"/>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="AG9" s="9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AH9" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="9">
-        <v>22</v>
-      </c>
-      <c r="F10" s="31">
-        <v>62.3</v>
-      </c>
-      <c r="G10" s="31">
-        <v>164.8</v>
-      </c>
-      <c r="H10" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="30">
-        <v>3.9</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="43">
-        <v>0.79</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="O10" s="10">
-        <f>0.58*G10</f>
-        <v>95.584000000000003</v>
-      </c>
-      <c r="P10" s="10">
-        <f>O10*F10/100</f>
-        <v>59.548832000000004</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="R10" s="33">
-        <v>4</v>
-      </c>
-      <c r="S10" s="33">
-        <v>3</v>
-      </c>
-      <c r="T10" s="33">
-        <v>3</v>
-      </c>
-      <c r="U10" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="V10" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="W10" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="X10" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="Y10" s="33">
-        <v>3.75</v>
-      </c>
-      <c r="Z10" s="33">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="33">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="33">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="33">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="AE10" s="26">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AF10" s="26">
-        <f t="shared" si="5"/>
-        <v>3.375</v>
-      </c>
-      <c r="AG10" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH10" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="9">
-        <v>25</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="29">
-        <v>60</v>
-      </c>
-      <c r="G11" s="29">
-        <v>160</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="9">
-        <f t="shared" si="6"/>
-        <v>11.5</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="2"/>
-        <v>92.8</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" si="3"/>
-        <v>55.68</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="R11" s="33">
-        <v>2</v>
-      </c>
-      <c r="S11" s="33">
-        <v>2</v>
-      </c>
-      <c r="T11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="U11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="V11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="W11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="X11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="Y11" s="33">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="33">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AA11" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AB11" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AC11" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD11" s="33">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AE11" s="26">
-        <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="AF11" s="26">
-        <f t="shared" si="5"/>
-        <v>3.7777777777777781</v>
-      </c>
-      <c r="AG11" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AH11" s="9">
+      <c r="AI12" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="9">
-        <v>26</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="38">
-        <v>68.95</v>
-      </c>
-      <c r="G12" s="38">
-        <v>170.8</v>
-      </c>
-      <c r="H12" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="I12" s="41">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="41">
-        <v>3.6</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="42">
-        <v>0.91</v>
-      </c>
-      <c r="N12" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f>0.58*G12</f>
-        <v>99.063999999999993</v>
-      </c>
-      <c r="P12" s="10">
-        <f>O12*F12/100</f>
-        <v>68.304628000000008</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="R12" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="S12" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="T12" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="U12" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="V12" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="W12" s="33">
-        <v>3</v>
-      </c>
-      <c r="X12" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="Y12" s="33">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AA12" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AB12" s="33">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="33">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AE12" s="26">
-        <f t="shared" si="4"/>
-        <v>2.9375</v>
-      </c>
-      <c r="AF12" s="26">
-        <f t="shared" si="5"/>
-        <v>3.9444444444444442</v>
-      </c>
-      <c r="AG12" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AH12" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>29</v>
       </c>
@@ -6063,145 +6276,156 @@
         <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9">
         <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="38">
+        <v>103</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="38">
         <v>71.3</v>
       </c>
-      <c r="G13" s="38">
+      <c r="H13" s="38">
         <v>173</v>
       </c>
-      <c r="H13" s="41">
+      <c r="I13" s="41">
         <v>3.5</v>
       </c>
-      <c r="I13" s="41">
+      <c r="J13" s="41">
         <v>0.8</v>
       </c>
-      <c r="J13" s="41">
+      <c r="K13" s="41">
         <v>3.6</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="L13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="42">
+        <v>109</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="42">
         <v>0.72</v>
       </c>
-      <c r="N13" s="9">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O13" s="10">
-        <f>0.58*G13</f>
+      <c r="O13" s="9">
+        <f>_xlfn.RANK.AVG(N13,$N$2:$N$13)</f>
+        <v>8</v>
+      </c>
+      <c r="P13" s="10">
+        <f>0.58*H13</f>
         <v>100.33999999999999</v>
       </c>
-      <c r="P13" s="10">
-        <f>O13*F13/100</f>
+      <c r="Q13" s="10">
+        <f t="shared" si="8"/>
         <v>71.542419999999993</v>
       </c>
-      <c r="Q13" s="33">
-        <v>4</v>
-      </c>
-      <c r="R13" s="33">
-        <v>4</v>
-      </c>
-      <c r="S13" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="T13" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="U13" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="V13" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="W13" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="X13" s="33">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="Y13" s="33">
+      <c r="R13" s="76">
+        <v>3.7</v>
+      </c>
+      <c r="S13" s="68">
+        <v>4</v>
+      </c>
+      <c r="T13" s="72">
         <v>3.5</v>
       </c>
-      <c r="Z13" s="33">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AB13" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AC13" s="33">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AD13" s="33">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AE13" s="26">
+      <c r="U13" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="V13" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="W13" s="68">
+        <v>4</v>
+      </c>
+      <c r="X13" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>3.3</v>
+      </c>
+      <c r="Z13" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AA13" s="68">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="AC13" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AD13" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="AE13" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AF13" s="26">
         <f t="shared" si="4"/>
-        <v>3.708333333333333</v>
-      </c>
-      <c r="AF13" s="26">
+        <v>3.6375000000000002</v>
+      </c>
+      <c r="AG13" s="26">
         <f t="shared" si="5"/>
-        <v>3.9722222222222219</v>
-      </c>
-      <c r="AG13" s="9">
+        <v>3.9833333333333338</v>
+      </c>
+      <c r="AH13" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AI13" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="AJ13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
-      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
-      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
-      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -6210,8 +6434,9 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -6220,8 +6445,9 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -6230,8 +6456,9 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -6240,8 +6467,9 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -6250,8 +6478,9 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -6260,8 +6489,9 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -6270,8 +6500,9 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -6280,8 +6511,9 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -6290,8 +6522,9 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -6300,8 +6533,9 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -6310,8 +6544,9 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -6320,73 +6555,65 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
-      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
-      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
-      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="K38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661B6154-4E6C-DB41-ADDA-FA4CCB55492C}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>4</v>
@@ -6408,30 +6635,30 @@
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="H4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D5" s="38">
         <v>71.5</v>
@@ -6439,25 +6666,25 @@
       <c r="E5" s="38">
         <v>173</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.73</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>0.9</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="38">
         <v>56.9</v>
@@ -6465,25 +6692,25 @@
       <c r="E6" s="38">
         <v>168</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <v>0.9</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>1</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="38">
         <v>68.099999999999994</v>
@@ -6491,25 +6718,25 @@
       <c r="E7" s="38">
         <v>167.1</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <v>0.8</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>3.7</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>1</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="53">
         <v>3.7</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D8" s="38">
         <v>70.3</v>
@@ -6517,25 +6744,25 @@
       <c r="E8" s="38">
         <v>168.5</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="54">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>0.9</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="55">
         <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="38">
         <v>63.35</v>
@@ -6543,25 +6770,25 @@
       <c r="E9" s="38">
         <v>164.1</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <v>0.79</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <v>0</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="57">
         <v>0.8</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="45">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D10" s="38">
         <v>62.35</v>
@@ -6569,25 +6796,25 @@
       <c r="E10" s="38">
         <v>168.3</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <v>0.7</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>0</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <v>0.7</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="38">
         <v>72.05</v>
@@ -6595,25 +6822,25 @@
       <c r="E11" s="38">
         <v>176.6</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <v>0.65</v>
       </c>
-      <c r="G11" s="61">
-        <v>4</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="G11" s="60">
+        <v>4</v>
+      </c>
+      <c r="H11" s="57">
         <v>0.8</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="55">
         <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="38">
         <v>68.95</v>
@@ -6621,25 +6848,25 @@
       <c r="E12" s="38">
         <v>170.8</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.91</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="61">
         <v>4.5</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="46">
         <v>0.9</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="62">
         <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" s="38">
         <v>71.3</v>
@@ -6647,17 +6874,43 @@
       <c r="E13" s="38">
         <v>173</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <v>0.72</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="64">
         <v>3.5</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="57">
         <v>0.8</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="62">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="38">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E14" s="38">
+        <v>173.4</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.79</v>
+      </c>
+      <c r="G14" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="39">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -6669,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B609DB4-27F5-2548-BACE-544DDA3005B6}">
   <dimension ref="A3:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:O15"/>
     </sheetView>
   </sheetViews>
@@ -6789,28 +7042,28 @@
         <v>31</v>
       </c>
       <c r="B5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="C5" s="33">
         <v>3</v>
       </c>
       <c r="D5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="E5" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="F5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="G5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="H5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="I5" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="J5" s="33">
         <v>4</v>
@@ -6819,16 +7072,16 @@
         <v>3.25</v>
       </c>
       <c r="L5" s="33">
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="M5" s="33">
         <v>4</v>
       </c>
       <c r="N5" s="33">
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="O5" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -6836,46 +7089,46 @@
         <v>57</v>
       </c>
       <c r="B6" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="33">
         <v>3</v>
       </c>
       <c r="E6" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="F6" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="G6" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="I6" s="33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J6" s="33">
+        <v>3.6</v>
+      </c>
+      <c r="K6" s="33">
+        <v>4</v>
+      </c>
+      <c r="L6" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="M6" s="33">
+        <v>4</v>
+      </c>
+      <c r="N6" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="O6" s="33">
         <v>3.75</v>
-      </c>
-      <c r="K6" s="33">
-        <v>4</v>
-      </c>
-      <c r="L6" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="M6" s="33">
-        <v>4</v>
-      </c>
-      <c r="N6" s="33">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="O6" s="33">
-        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -6883,25 +7136,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C7" s="33">
         <v>4</v>
       </c>
       <c r="D7" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E7" s="33">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F7" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G7" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H7" s="33">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I7" s="33">
         <v>3</v>
@@ -6913,16 +7166,16 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="L7" s="33">
-        <v>3.3333333333333335</v>
+        <v>2.75</v>
       </c>
       <c r="M7" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="N7" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="O7" s="33">
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -6977,43 +7230,43 @@
         <v>70</v>
       </c>
       <c r="B9" s="33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C9" s="33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="33">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="33">
         <v>4.5</v>
       </c>
       <c r="L9" s="33">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="33">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N9" s="33">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="O9" s="33">
         <v>4</v>
@@ -7165,28 +7418,28 @@
         <v>27</v>
       </c>
       <c r="B13" s="33">
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C13" s="33">
         <v>2</v>
       </c>
       <c r="D13" s="33">
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E13" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F13" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G13" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H13" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I13" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J13" s="33">
         <v>3</v>
@@ -7195,16 +7448,16 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="L13" s="33">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="M13" s="33">
-        <v>3.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="N13" s="33">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="O13" s="33">
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -7212,46 +7465,46 @@
         <v>68</v>
       </c>
       <c r="B14" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C14" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D14" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E14" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F14" s="33">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G14" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H14" s="33">
         <v>3</v>
       </c>
       <c r="I14" s="33">
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J14" s="33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" s="33">
         <v>3.6666666666666665</v>
       </c>
       <c r="L14" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="M14" s="33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N14" s="33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O14" s="33">
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -7259,28 +7512,28 @@
         <v>29</v>
       </c>
       <c r="B15" s="33">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="C15" s="33">
         <v>4</v>
       </c>
       <c r="D15" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="F15" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="G15" s="33">
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H15" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="I15" s="33">
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="J15" s="33">
         <v>3.5</v>
@@ -7289,16 +7542,16 @@
         <v>4</v>
       </c>
       <c r="L15" s="33">
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="M15" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="N15" s="33">
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="O15" s="33">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -7306,56 +7559,68 @@
         <v>81</v>
       </c>
       <c r="B16" s="32">
-        <v>3.36</v>
+        <v>3.28125</v>
       </c>
       <c r="C16" s="32">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="D16" s="32">
-        <v>3.1153846153846154</v>
+        <v>3.0909090909090908</v>
       </c>
       <c r="E16" s="32">
-        <v>3.4230769230769229</v>
+        <v>3.393939393939394</v>
       </c>
       <c r="F16" s="32">
-        <v>3.4230769230769229</v>
+        <v>3.4242424242424243</v>
       </c>
       <c r="G16" s="32">
-        <v>3.3461538461538463</v>
+        <v>3.2727272727272729</v>
       </c>
       <c r="H16" s="32">
-        <v>3.4230769230769229</v>
+        <v>3.3636363636363638</v>
       </c>
       <c r="I16" s="32">
-        <v>3.1538461538461537</v>
+        <v>3.1212121212121211</v>
       </c>
       <c r="J16" s="32">
-        <v>3.7027027027027026</v>
+        <v>3.65</v>
       </c>
       <c r="K16" s="32">
         <v>3.5135135135135136</v>
       </c>
       <c r="L16" s="32">
-        <v>3.875</v>
+        <v>3.7948717948717947</v>
       </c>
       <c r="M16" s="32">
-        <v>3.6666666666666665</v>
+        <v>3.65</v>
       </c>
       <c r="N16" s="32">
-        <v>4.096774193548387</v>
+        <v>4.0263157894736841</v>
       </c>
       <c r="O16" s="32">
-        <v>3.7419354838709675</v>
+        <v>3.736842105263158</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B4:O15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4826C-561A-6B47-B40F-54FCB5115848}">
-  <dimension ref="A3:A55"/>
+  <dimension ref="A3:A62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:A52"/>
@@ -7397,238 +7662,273 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="14" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+    <row r="19" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+    <row r="24" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+    <row r="40" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+    <row r="41" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+    <row r="58" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7642,12 +7942,13 @@
   <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="22" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
@@ -8671,9 +8972,11 @@
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17">
+        <v>45637.465289351851</v>
+      </c>
       <c r="B18" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>27</v>
@@ -8721,7 +9024,7 @@
         <v>5</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -8731,7 +9034,9 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17">
+        <v>45637.46912037037</v>
+      </c>
       <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
@@ -8781,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
@@ -8791,7 +9096,9 @@
       <c r="X19" s="16"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17">
+        <v>45637.471435185187</v>
+      </c>
       <c r="B20" s="18" t="s">
         <v>55</v>
       </c>
@@ -8841,7 +9148,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
@@ -8851,7 +9158,9 @@
       <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17">
+        <v>45637.47420138889</v>
+      </c>
       <c r="B21" s="18" t="s">
         <v>55</v>
       </c>
@@ -8901,7 +9210,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
@@ -8911,7 +9220,9 @@
       <c r="X21" s="16"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17">
+        <v>45637.47960648148</v>
+      </c>
       <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
@@ -8961,7 +9272,7 @@
         <v>3</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
@@ -8971,7 +9282,9 @@
       <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17">
+        <v>45637.485150462962</v>
+      </c>
       <c r="B23" s="18" t="s">
         <v>55</v>
       </c>
@@ -9021,7 +9334,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
@@ -9031,7 +9344,9 @@
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17">
+        <v>45637.489618055559</v>
+      </c>
       <c r="B24" s="18" t="s">
         <v>55</v>
       </c>
@@ -9081,7 +9396,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -9091,7 +9406,9 @@
       <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17">
+        <v>45637.493356481478</v>
+      </c>
       <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
@@ -9141,7 +9458,7 @@
         <v>2</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
@@ -9151,7 +9468,9 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17">
+        <v>45637.495810185188</v>
+      </c>
       <c r="B26" s="18" t="s">
         <v>52</v>
       </c>
@@ -9197,7 +9516,7 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
@@ -9207,7 +9526,9 @@
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17">
+        <v>45637.498368055552</v>
+      </c>
       <c r="B27" s="18" t="s">
         <v>55</v>
       </c>
@@ -9249,7 +9570,7 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -9259,9 +9580,11 @@
       <c r="X27" s="16"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="B28" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>27</v>
@@ -9293,7 +9616,7 @@
         <v>5</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -9303,9 +9626,11 @@
       <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="B29" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>29</v>
@@ -9337,7 +9662,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -9347,9 +9672,11 @@
       <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18" t="s">
+        <v>192</v>
+      </c>
       <c r="B30" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>30</v>
@@ -9381,7 +9708,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
@@ -9391,9 +9718,11 @@
       <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="B31" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>31</v>
@@ -9425,7 +9754,7 @@
         <v>5</v>
       </c>
       <c r="R31" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -9435,9 +9764,11 @@
       <c r="X31" s="16"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="B32" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>32</v>
@@ -9469,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -9479,9 +9810,11 @@
       <c r="X32" s="16"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="B33" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>33</v>
@@ -9513,7 +9846,7 @@
         <v>4</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -9523,9 +9856,11 @@
       <c r="X33" s="16"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="B34" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>68</v>
@@ -9557,7 +9892,7 @@
         <v>5</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -9567,9 +9902,11 @@
       <c r="X34" s="16"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="B35" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>70</v>
@@ -9601,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -9611,9 +9948,11 @@
       <c r="X35" s="16"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="B36" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>72</v>
@@ -9645,7 +9984,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -9655,9 +9994,11 @@
       <c r="X36" s="16"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="B37" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>57</v>
@@ -9689,7 +10030,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -9699,9 +10040,11 @@
       <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="B38" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>53</v>
@@ -9733,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -9743,23 +10086,51 @@
       <c r="X38" s="16"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="F39" s="18">
+        <v>3</v>
+      </c>
+      <c r="G39" s="18">
+        <v>3</v>
+      </c>
+      <c r="H39" s="18">
+        <v>3</v>
+      </c>
+      <c r="I39" s="18">
+        <v>3</v>
+      </c>
+      <c r="J39" s="18">
+        <v>3</v>
+      </c>
+      <c r="K39" s="18">
+        <v>3</v>
+      </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="N39" s="18">
+        <v>5</v>
+      </c>
+      <c r="O39" s="18">
+        <v>5</v>
+      </c>
+      <c r="P39" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>5</v>
+      </c>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -9769,23 +10140,51 @@
       <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="18">
+        <v>3</v>
+      </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="F40" s="18">
+        <v>3</v>
+      </c>
+      <c r="G40" s="18">
+        <v>3</v>
+      </c>
+      <c r="H40" s="18">
+        <v>4</v>
+      </c>
+      <c r="I40" s="18">
+        <v>3</v>
+      </c>
+      <c r="J40" s="18">
+        <v>4</v>
+      </c>
+      <c r="K40" s="18">
+        <v>3</v>
+      </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="N40" s="18">
+        <v>4</v>
+      </c>
+      <c r="O40" s="18">
+        <v>4</v>
+      </c>
+      <c r="P40" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>4</v>
+      </c>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -9795,23 +10194,51 @@
       <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="18">
+        <v>3</v>
+      </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="F41" s="18">
+        <v>3</v>
+      </c>
+      <c r="G41" s="18">
+        <v>4</v>
+      </c>
+      <c r="H41" s="18">
+        <v>4</v>
+      </c>
+      <c r="I41" s="18">
+        <v>3</v>
+      </c>
+      <c r="J41" s="18">
+        <v>3</v>
+      </c>
+      <c r="K41" s="18">
+        <v>3</v>
+      </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="N41" s="18">
+        <v>4</v>
+      </c>
+      <c r="O41" s="18">
+        <v>4</v>
+      </c>
+      <c r="P41" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>4</v>
+      </c>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -9821,23 +10248,51 @@
       <c r="X41" s="16"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="18">
+        <v>3</v>
+      </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="F42" s="18">
+        <v>3</v>
+      </c>
+      <c r="G42" s="18">
+        <v>3</v>
+      </c>
+      <c r="H42" s="18">
+        <v>3</v>
+      </c>
+      <c r="I42" s="18">
+        <v>3</v>
+      </c>
+      <c r="J42" s="18">
+        <v>3</v>
+      </c>
+      <c r="K42" s="18">
+        <v>3</v>
+      </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="N42" s="18">
+        <v>1</v>
+      </c>
+      <c r="O42" s="18">
+        <v>2</v>
+      </c>
+      <c r="P42" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>2</v>
+      </c>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
@@ -9847,23 +10302,55 @@
       <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="A43" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="18">
+        <v>3</v>
+      </c>
+      <c r="E43" s="18">
+        <v>3</v>
+      </c>
+      <c r="F43" s="18">
+        <v>3</v>
+      </c>
+      <c r="G43" s="18">
+        <v>3</v>
+      </c>
+      <c r="H43" s="18">
+        <v>3</v>
+      </c>
+      <c r="I43" s="18">
+        <v>3</v>
+      </c>
+      <c r="J43" s="18">
+        <v>3</v>
+      </c>
+      <c r="K43" s="18">
+        <v>3</v>
+      </c>
+      <c r="L43" s="18">
+        <v>3</v>
+      </c>
       <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="N43" s="18">
+        <v>3</v>
+      </c>
+      <c r="O43" s="18">
+        <v>3</v>
+      </c>
+      <c r="P43" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>3</v>
+      </c>
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
@@ -9873,23 +10360,55 @@
       <c r="X43" s="16"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
+      <c r="A44" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="18">
+        <v>4</v>
+      </c>
+      <c r="E44" s="18">
+        <v>3</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3</v>
+      </c>
+      <c r="G44" s="18">
+        <v>4</v>
+      </c>
+      <c r="H44" s="18">
+        <v>4</v>
+      </c>
+      <c r="I44" s="18">
+        <v>3</v>
+      </c>
+      <c r="J44" s="18">
+        <v>3</v>
+      </c>
+      <c r="K44" s="18">
+        <v>3</v>
+      </c>
+      <c r="L44" s="18">
+        <v>3</v>
+      </c>
       <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
+      <c r="N44" s="18">
+        <v>4</v>
+      </c>
+      <c r="O44" s="18">
+        <v>4</v>
+      </c>
+      <c r="P44" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>4</v>
+      </c>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
@@ -9899,23 +10418,55 @@
       <c r="X44" s="16"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
+      <c r="A45" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="18">
+        <v>3</v>
+      </c>
+      <c r="E45" s="18">
+        <v>3</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18">
+        <v>3</v>
+      </c>
+      <c r="H45" s="18">
+        <v>3</v>
+      </c>
+      <c r="I45" s="18">
+        <v>3</v>
+      </c>
+      <c r="J45" s="18">
+        <v>3</v>
+      </c>
+      <c r="K45" s="18">
+        <v>3</v>
+      </c>
+      <c r="L45" s="18">
+        <v>3</v>
+      </c>
       <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="N45" s="18">
+        <v>3</v>
+      </c>
+      <c r="O45" s="18">
+        <v>3</v>
+      </c>
+      <c r="P45" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>4</v>
+      </c>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
@@ -11797,6 +12348,18 @@
       <c r="X117" s="16"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:Q45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/master_c4g_24.xlsx
+++ b/master_c4g_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakefarren-price/Google Drive/RYA - Analysis/Crew4Gold_24/c4g/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF6599-7CFB-9548-A1E3-328DC3312B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE0EB5-D379-4C48-AD1F-5AF6A465B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="-27680" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Bella Fellows (Helm)</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1078,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1165,8 +1168,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,30 +1264,30 @@
     <xf numFmtId="10" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="10" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="47" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="47" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="20">
     <dxf>
       <alignment wrapText="1" indent="0"/>
     </dxf>
@@ -1338,67 +1340,7 @@
       <alignment wrapText="1" indent="0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -3887,7 +3829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3200E97E-E608-2941-A9E2-A293371AF9A7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:O16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4034,10 +3976,10 @@
     <dataField name="Average of Behaviours [Preparing and reviewing training]" fld="16" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="39">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="14">
@@ -4059,7 +4001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -4104,7 +4046,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95A770F9-FC95-F442-B2CC-40B5FC752FC4}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4372,23 +4314,23 @@
     <i/>
   </colItems>
   <formats count="17">
-    <format dxfId="37">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="15">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4400,7 +4342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4413,7 +4355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4426,7 +4368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4438,7 +4380,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4450,7 +4392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4462,7 +4404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4474,7 +4416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4486,7 +4428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4499,7 +4441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4511,7 +4453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4523,7 +4465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4536,7 +4478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -4853,13 +4795,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H39" sqref="H39"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15" style="9" customWidth="1"/>
     <col min="7" max="8" width="15" style="14" bestFit="1" customWidth="1"/>
@@ -5006,26 +4948,26 @@
       <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="64">
         <v>60</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="64">
         <v>160</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="L2" s="9" t="s">
         <v>107</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="65">
         <v>0.01</v>
       </c>
       <c r="O2" s="9">
-        <f>_xlfn.RANK.AVG(N2,$N$2:$N$13)</f>
+        <f t="shared" ref="O2:O10" si="0">_xlfn.RANK.AVG(N2,$N$2:$N$13)</f>
         <v>12</v>
       </c>
       <c r="P2" s="10">
@@ -5036,46 +4978,46 @@
         <f>P2*G2/100</f>
         <v>55.68</v>
       </c>
-      <c r="R2" s="67">
-        <v>3</v>
-      </c>
-      <c r="S2" s="67">
-        <v>3</v>
-      </c>
-      <c r="T2" s="67">
-        <v>3</v>
-      </c>
-      <c r="U2" s="68">
-        <v>4</v>
-      </c>
-      <c r="V2" s="68">
-        <v>4</v>
-      </c>
-      <c r="W2" s="67">
-        <v>3</v>
-      </c>
-      <c r="X2" s="67">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="68">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="68">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="68">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="67">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="69">
+      <c r="R2" s="66">
+        <v>3</v>
+      </c>
+      <c r="S2" s="66">
+        <v>3</v>
+      </c>
+      <c r="T2" s="66">
+        <v>3</v>
+      </c>
+      <c r="U2" s="67">
+        <v>4</v>
+      </c>
+      <c r="V2" s="67">
+        <v>4</v>
+      </c>
+      <c r="W2" s="66">
+        <v>3</v>
+      </c>
+      <c r="X2" s="66">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="67">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="67">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="67">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="66">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="68">
         <v>2</v>
       </c>
-      <c r="AD2" s="67">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="67">
+      <c r="AD2" s="66">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="66">
         <v>3</v>
       </c>
       <c r="AF2" s="26">
@@ -5087,11 +5029,11 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="AH2" s="9">
-        <f t="shared" ref="AH2:AH13" si="0">_xlfn.RANK.AVG(AF2,$AF$2:$AF$13)</f>
+        <f t="shared" ref="AH2:AH13" si="1">_xlfn.RANK.AVG(AF2,$AF$2:$AF$13)</f>
         <v>6</v>
       </c>
       <c r="AI2" s="9">
-        <f t="shared" ref="AI2:AI13" si="1">_xlfn.RANK.AVG(AG2,$AG$2:$AG$13)</f>
+        <f t="shared" ref="AI2:AI13" si="2">_xlfn.RANK.AVG(AG2,$AG$2:$AG$13)</f>
         <v>12</v>
       </c>
       <c r="AJ2" t="s">
@@ -5117,19 +5059,19 @@
       <c r="F3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <v>71.5</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <v>173</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <v>0.9</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="39">
         <v>3.3</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -5138,77 +5080,77 @@
       <c r="M3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="41">
         <v>0.73</v>
       </c>
       <c r="O3" s="9">
-        <f>_xlfn.RANK.AVG(N3,$N$2:$N$13)</f>
-        <v>7</v>
-      </c>
-      <c r="P3" s="10">
-        <f t="shared" ref="P3:P8" si="2">0.58*H3</f>
-        <v>100.33999999999999</v>
-      </c>
-      <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q8" si="3">P3*G3/100</f>
-        <v>71.743099999999998</v>
-      </c>
-      <c r="R3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="S3" s="67">
-        <v>3</v>
-      </c>
-      <c r="T3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="U3" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="V3" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="W3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="X3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="Y3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="Z3" s="68">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="AB3" s="73">
-        <v>4.3</v>
-      </c>
-      <c r="AC3" s="68">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="73">
-        <v>4.3</v>
-      </c>
-      <c r="AE3" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="AF3" s="26">
-        <f t="shared" ref="AF3:AF13" si="4">AVERAGE(R3:Y3)</f>
-        <v>3.35</v>
-      </c>
-      <c r="AG3" s="26">
-        <f t="shared" ref="AG3:AG13" si="5">AVERAGE(Z3:AE3)</f>
-        <v>3.9499999999999997</v>
-      </c>
-      <c r="AH3" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P8" si="3">0.58*H3</f>
+        <v>100.33999999999999</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q8" si="4">P3*G3/100</f>
+        <v>71.743099999999998</v>
+      </c>
+      <c r="R3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="S3" s="66">
+        <v>3</v>
+      </c>
+      <c r="T3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="U3" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="V3" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="W3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="X3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="Y3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="AB3" s="72">
+        <v>4.3</v>
+      </c>
+      <c r="AC3" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="72">
+        <v>4.3</v>
+      </c>
+      <c r="AE3" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="AF3" s="26">
+        <f t="shared" ref="AF3:AF13" si="5">AVERAGE(R3:Y3)</f>
+        <v>3.35</v>
+      </c>
+      <c r="AG3" s="26">
+        <f t="shared" ref="AG3:AG13" si="6">AVERAGE(Z3:AE3)</f>
+        <v>3.9499999999999997</v>
+      </c>
+      <c r="AH3" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="AI3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AJ3" t="s">
@@ -5234,19 +5176,19 @@
       <c r="F4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>56.9</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>168</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>1</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>4</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -5255,77 +5197,77 @@
       <c r="M4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="41">
         <v>0.9</v>
       </c>
       <c r="O4" s="9">
-        <f>_xlfn.RANK.AVG(N4,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P4" s="10">
+        <f t="shared" si="3"/>
+        <v>97.44</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="4"/>
+        <v>55.443359999999991</v>
+      </c>
+      <c r="R4" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="S4" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T4" s="66">
+        <v>3</v>
+      </c>
+      <c r="U4" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="V4" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="W4" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="X4" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="Y4" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="Z4" s="73">
+        <v>3.6</v>
+      </c>
+      <c r="AA4" s="67">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="72">
+        <v>4.3</v>
+      </c>
+      <c r="AC4" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="72">
+        <v>4.3</v>
+      </c>
+      <c r="AE4" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="AF4" s="26">
+        <f t="shared" si="5"/>
+        <v>3.5125000000000002</v>
+      </c>
+      <c r="AG4" s="26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AH4" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AI4" s="9">
         <f t="shared" si="2"/>
-        <v>97.44</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="3"/>
-        <v>55.443359999999991</v>
-      </c>
-      <c r="R4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="S4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="T4" s="67">
-        <v>3</v>
-      </c>
-      <c r="U4" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="V4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="W4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="X4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="Y4" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="Z4" s="74">
-        <v>3.6</v>
-      </c>
-      <c r="AA4" s="68">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="73">
-        <v>4.3</v>
-      </c>
-      <c r="AC4" s="68">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="73">
-        <v>4.3</v>
-      </c>
-      <c r="AE4" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="AF4" s="26">
-        <f t="shared" si="4"/>
-        <v>3.5125000000000002</v>
-      </c>
-      <c r="AG4" s="26">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH4" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AI4" s="9">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AJ4" t="s">
@@ -5351,19 +5293,19 @@
       <c r="F5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>68.099999999999994</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>167.1</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>3.7</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>3.7</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -5372,77 +5314,77 @@
       <c r="M5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="41">
         <v>0.8</v>
       </c>
       <c r="O5" s="9">
-        <f>_xlfn.RANK.AVG(N5,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P5" s="10">
+        <f t="shared" si="3"/>
+        <v>96.917999999999992</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="4"/>
+        <v>66.00115799999999</v>
+      </c>
+      <c r="R5" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="S5" s="67">
+        <v>4</v>
+      </c>
+      <c r="T5" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="U5" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="V5" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="W5" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="X5" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="Y5" s="66">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AA5" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AB5" s="76">
+        <v>2.8</v>
+      </c>
+      <c r="AC5" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="AD5" s="69">
+        <v>3.3</v>
+      </c>
+      <c r="AE5" s="66">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="26">
+        <f t="shared" si="5"/>
+        <v>3.45</v>
+      </c>
+      <c r="AG5" s="26">
+        <f t="shared" si="6"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="AH5" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
         <f t="shared" si="2"/>
-        <v>96.917999999999992</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="3"/>
-        <v>66.00115799999999</v>
-      </c>
-      <c r="R5" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="S5" s="68">
-        <v>4</v>
-      </c>
-      <c r="T5" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="U5" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="V5" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="W5" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="X5" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="Y5" s="67">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AA5" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AB5" s="77">
-        <v>2.8</v>
-      </c>
-      <c r="AC5" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="AD5" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="AE5" s="67">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="26">
-        <f t="shared" si="4"/>
-        <v>3.45</v>
-      </c>
-      <c r="AG5" s="26">
-        <f t="shared" si="5"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="AH5" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AI5" s="9">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AJ5" t="s">
@@ -5468,19 +5410,19 @@
       <c r="F6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>70.3</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>168.5</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="39">
         <v>0.9</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <v>3.4</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -5489,77 +5431,77 @@
       <c r="M6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>0.56000000000000005</v>
       </c>
       <c r="O6" s="9">
-        <f>_xlfn.RANK.AVG(N6,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P6" s="10">
+        <f t="shared" si="3"/>
+        <v>97.72999999999999</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="4"/>
+        <v>68.704189999999983</v>
+      </c>
+      <c r="R6" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="S6" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T6" s="66">
+        <v>3</v>
+      </c>
+      <c r="U6" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="V6" s="66">
+        <v>3</v>
+      </c>
+      <c r="W6" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="X6" s="67">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="AB6" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AC6" s="66">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="67">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="26">
+        <f t="shared" si="5"/>
+        <v>3.3125</v>
+      </c>
+      <c r="AG6" s="26">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="AH6" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AI6" s="9">
         <f t="shared" si="2"/>
-        <v>97.72999999999999</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="3"/>
-        <v>68.704189999999983</v>
-      </c>
-      <c r="R6" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="S6" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="T6" s="67">
-        <v>3</v>
-      </c>
-      <c r="U6" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="V6" s="67">
-        <v>3</v>
-      </c>
-      <c r="W6" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="X6" s="68">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="78">
-        <v>2.5</v>
-      </c>
-      <c r="Z6" s="67">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="AB6" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AC6" s="67">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="68">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="68">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="26">
-        <f t="shared" si="4"/>
-        <v>3.3125</v>
-      </c>
-      <c r="AG6" s="26">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AH6" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AI6" s="9">
-        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="AJ6" t="s">
@@ -5585,19 +5527,19 @@
       <c r="F7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>63.35</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>164.1</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>0</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="39">
         <v>0.8</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="39">
         <v>4.0999999999999996</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -5606,77 +5548,77 @@
       <c r="M7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="41">
         <v>0.79</v>
       </c>
       <c r="O7" s="9">
-        <f>_xlfn.RANK.AVG(N7,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P7" s="10">
+        <f t="shared" si="3"/>
+        <v>95.177999999999983</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="4"/>
+        <v>60.295262999999984</v>
+      </c>
+      <c r="R7" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="S7" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="T7" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="U7" s="67">
+        <v>4</v>
+      </c>
+      <c r="V7" s="67">
+        <v>4</v>
+      </c>
+      <c r="W7" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="X7" s="67">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="Z7" s="67">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="AB7" s="67">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AD7" s="79">
+        <v>4.7</v>
+      </c>
+      <c r="AE7" s="67">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="26">
+        <f t="shared" si="5"/>
+        <v>3.6875</v>
+      </c>
+      <c r="AG7" s="26">
+        <f t="shared" si="6"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="AH7" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="9">
         <f t="shared" si="2"/>
-        <v>95.177999999999983</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="3"/>
-        <v>60.295262999999984</v>
-      </c>
-      <c r="R7" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="S7" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="T7" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="U7" s="68">
-        <v>4</v>
-      </c>
-      <c r="V7" s="68">
-        <v>4</v>
-      </c>
-      <c r="W7" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="X7" s="68">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="Z7" s="68">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="AB7" s="68">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AD7" s="80">
-        <v>4.7</v>
-      </c>
-      <c r="AE7" s="68">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="26">
-        <f t="shared" si="4"/>
-        <v>3.6875</v>
-      </c>
-      <c r="AG7" s="26">
-        <f t="shared" si="5"/>
-        <v>4.1499999999999995</v>
-      </c>
-      <c r="AH7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
@@ -5702,19 +5644,19 @@
       <c r="F8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>62.35</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>168.3</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>0</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>0.7</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="39">
         <v>3.4</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -5723,77 +5665,77 @@
       <c r="M8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="41">
         <v>0.7</v>
       </c>
       <c r="O8" s="9">
-        <f>_xlfn.RANK.AVG(N8,$N$2:$N$13)</f>
-        <v>9</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="2"/>
-        <v>97.614000000000004</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="3"/>
-        <v>60.862329000000003</v>
-      </c>
-      <c r="R8" s="68">
-        <v>4</v>
-      </c>
-      <c r="S8" s="67">
-        <v>3</v>
-      </c>
-      <c r="T8" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="U8" s="78">
-        <v>2.5</v>
-      </c>
-      <c r="V8" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="W8" s="67">
-        <v>3</v>
-      </c>
-      <c r="X8" s="67">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="67">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="81">
-        <v>4.3</v>
-      </c>
-      <c r="AA8" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AB8" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AC8" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AD8" s="68">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="67">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="26">
-        <f t="shared" si="4"/>
-        <v>3.1875</v>
-      </c>
-      <c r="AG8" s="26">
-        <f t="shared" si="5"/>
-        <v>3.7333333333333329</v>
-      </c>
-      <c r="AH8" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="P8" s="10">
+        <f t="shared" si="3"/>
+        <v>97.614000000000004</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="4"/>
+        <v>60.862329000000003</v>
+      </c>
+      <c r="R8" s="67">
+        <v>4</v>
+      </c>
+      <c r="S8" s="66">
+        <v>3</v>
+      </c>
+      <c r="T8" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="U8" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="V8" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="W8" s="66">
+        <v>3</v>
+      </c>
+      <c r="X8" s="66">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="66">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="80">
+        <v>4.3</v>
+      </c>
+      <c r="AA8" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AB8" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AC8" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AD8" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="66">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="26">
+        <f t="shared" si="5"/>
+        <v>3.1875</v>
+      </c>
+      <c r="AG8" s="26">
+        <f t="shared" si="6"/>
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="AH8" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="AI8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AJ8" t="s">
@@ -5819,19 +5761,19 @@
       <c r="F9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>72.05</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <v>176.6</v>
       </c>
-      <c r="I9" s="40">
-        <v>4</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="I9" s="39">
+        <v>4</v>
+      </c>
+      <c r="J9" s="39">
         <v>0.8</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="39">
         <v>3.4</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -5840,11 +5782,11 @@
       <c r="M9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="41">
         <v>0.65</v>
       </c>
       <c r="O9" s="9">
-        <f>_xlfn.RANK.AVG(N9,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P9" s="10">
@@ -5855,62 +5797,62 @@
         <f>P9*G9/100</f>
         <v>73.799373999999986</v>
       </c>
-      <c r="R9" s="67">
-        <v>3</v>
-      </c>
-      <c r="S9" s="78">
+      <c r="R9" s="66">
+        <v>3</v>
+      </c>
+      <c r="S9" s="77">
         <v>2.5</v>
       </c>
-      <c r="T9" s="67">
-        <v>3</v>
-      </c>
-      <c r="U9" s="72">
+      <c r="T9" s="66">
+        <v>3</v>
+      </c>
+      <c r="U9" s="71">
         <v>3.5</v>
       </c>
-      <c r="V9" s="67">
-        <v>3</v>
-      </c>
-      <c r="W9" s="78">
+      <c r="V9" s="66">
+        <v>3</v>
+      </c>
+      <c r="W9" s="77">
         <v>2.5</v>
       </c>
-      <c r="X9" s="67">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="78">
+      <c r="X9" s="66">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="77">
         <v>2.5</v>
       </c>
-      <c r="Z9" s="75">
+      <c r="Z9" s="74">
         <v>3.3</v>
       </c>
-      <c r="AA9" s="67">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="76">
+      <c r="AA9" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="75">
         <v>3.7</v>
       </c>
-      <c r="AC9" s="75">
+      <c r="AC9" s="74">
         <v>3.3</v>
       </c>
-      <c r="AD9" s="68">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="76">
+      <c r="AD9" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="75">
         <v>3.7</v>
       </c>
       <c r="AF9" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.875</v>
       </c>
       <c r="AG9" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="AH9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AI9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="AJ9" t="s">
@@ -5957,11 +5899,11 @@
       <c r="M10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="42">
         <v>0.79</v>
       </c>
       <c r="O10" s="9">
-        <f>_xlfn.RANK.AVG(N10,$N$2:$N$13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P10" s="10">
@@ -5972,62 +5914,62 @@
         <f>P10*G10/100</f>
         <v>59.548832000000004</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="75">
         <v>3.7</v>
       </c>
-      <c r="S10" s="68">
-        <v>4</v>
-      </c>
-      <c r="T10" s="67">
-        <v>3</v>
-      </c>
-      <c r="U10" s="67">
-        <v>3</v>
-      </c>
-      <c r="V10" s="76">
+      <c r="S10" s="67">
+        <v>4</v>
+      </c>
+      <c r="T10" s="66">
+        <v>3</v>
+      </c>
+      <c r="U10" s="66">
+        <v>3</v>
+      </c>
+      <c r="V10" s="75">
         <v>3.7</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W10" s="75">
         <v>3.7</v>
       </c>
-      <c r="X10" s="76">
+      <c r="X10" s="75">
         <v>3.7</v>
       </c>
-      <c r="Y10" s="75">
+      <c r="Y10" s="74">
         <v>3.3</v>
       </c>
-      <c r="Z10" s="71">
+      <c r="Z10" s="70">
         <v>3.8</v>
       </c>
-      <c r="AA10" s="67">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="67">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="68">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="67">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="72">
+      <c r="AA10" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="66">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="66">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="71">
         <v>3.5</v>
       </c>
       <c r="AF10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5124999999999997</v>
       </c>
       <c r="AG10" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3833333333333333</v>
       </c>
       <c r="AH10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AI10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AJ10" t="s">
@@ -6059,13 +6001,13 @@
       <c r="H11" s="29">
         <v>173.4</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>3.8</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="39">
         <v>0.7</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="39">
         <v>3.2</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -6074,77 +6016,77 @@
       <c r="M11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="42">
         <v>0.79</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" ref="O11:O12" si="6">_xlfn.RANK.AVG(N11,$N$2:$N$13)</f>
+        <f t="shared" ref="O11:O12" si="7">_xlfn.RANK.AVG(N11,$N$2:$N$13)</f>
         <v>5</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="7">0.58*H11</f>
+        <f t="shared" ref="P11:P12" si="8">0.58*H11</f>
         <v>100.572</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11:Q13" si="8">P11*G11/100</f>
+        <f t="shared" ref="Q11:Q14" si="9">P11*G11/100</f>
         <v>75.831288000000001</v>
       </c>
-      <c r="R11" s="82">
+      <c r="R11" s="81">
         <v>1.7</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="68">
         <v>2</v>
       </c>
-      <c r="T11" s="83">
+      <c r="T11" s="82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U11" s="84">
+      <c r="U11" s="83">
         <v>2.7</v>
       </c>
-      <c r="V11" s="84">
+      <c r="V11" s="83">
         <v>2.7</v>
       </c>
-      <c r="W11" s="84">
+      <c r="W11" s="83">
         <v>2.7</v>
       </c>
-      <c r="X11" s="84">
+      <c r="X11" s="83">
         <v>2.7</v>
       </c>
-      <c r="Y11" s="84">
+      <c r="Y11" s="83">
         <v>2.7</v>
       </c>
-      <c r="Z11" s="67">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="84">
+      <c r="Z11" s="66">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="83">
         <v>2.7</v>
       </c>
-      <c r="AB11" s="79">
+      <c r="AB11" s="78">
         <v>4.5</v>
       </c>
-      <c r="AC11" s="68">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="79">
+      <c r="AC11" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="78">
         <v>4.5</v>
       </c>
-      <c r="AE11" s="85">
+      <c r="AE11" s="84">
         <v>4.8</v>
       </c>
       <c r="AF11" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4374999999999996</v>
       </c>
       <c r="AG11" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9166666666666665</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AJ11" t="s">
@@ -6170,19 +6112,19 @@
       <c r="F12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>68.95</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>170.8</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>4.5</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="40">
         <v>0.9</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>3.6</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -6191,77 +6133,77 @@
       <c r="M12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="41">
         <v>0.91</v>
       </c>
       <c r="O12" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="8"/>
+        <v>99.063999999999993</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="9"/>
+        <v>68.304628000000008</v>
+      </c>
+      <c r="R12" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="S12" s="83">
+        <v>2.7</v>
+      </c>
+      <c r="T12" s="83">
+        <v>2.7</v>
+      </c>
+      <c r="U12" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="V12" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="W12" s="83">
+        <v>2.7</v>
+      </c>
+      <c r="X12" s="66">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="83">
+        <v>2.7</v>
+      </c>
+      <c r="Z12" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="AA12" s="75">
+        <v>3.7</v>
+      </c>
+      <c r="AB12" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="AC12" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="AD12" s="70">
+        <v>3.8</v>
+      </c>
+      <c r="AE12" s="67">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="26">
+        <f t="shared" si="5"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="AG12" s="26">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" si="7"/>
-        <v>99.063999999999993</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="8"/>
-        <v>68.304628000000008</v>
-      </c>
-      <c r="R12" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="S12" s="84">
-        <v>2.7</v>
-      </c>
-      <c r="T12" s="84">
-        <v>2.7</v>
-      </c>
-      <c r="U12" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="V12" s="75">
-        <v>3.3</v>
-      </c>
-      <c r="W12" s="84">
-        <v>2.7</v>
-      </c>
-      <c r="X12" s="67">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="84">
-        <v>2.7</v>
-      </c>
-      <c r="Z12" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="AA12" s="76">
-        <v>3.7</v>
-      </c>
-      <c r="AB12" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="AC12" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="AD12" s="71">
-        <v>3.8</v>
-      </c>
-      <c r="AE12" s="68">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="26">
-        <f t="shared" si="4"/>
-        <v>2.9624999999999999</v>
-      </c>
-      <c r="AG12" s="26">
-        <f t="shared" si="5"/>
         <v>3.7666666666666671</v>
       </c>
       <c r="AH12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AI12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AJ12" t="s">
@@ -6287,19 +6229,19 @@
       <c r="F13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>71.3</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>173</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>3.5</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="40">
         <v>0.8</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>3.6</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -6308,7 +6250,7 @@
       <c r="M13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="41">
         <v>0.72</v>
       </c>
       <c r="O13" s="9">
@@ -6320,69 +6262,94 @@
         <v>100.33999999999999</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71.542419999999993</v>
       </c>
-      <c r="R13" s="76">
+      <c r="R13" s="75">
         <v>3.7</v>
       </c>
-      <c r="S13" s="68">
-        <v>4</v>
-      </c>
-      <c r="T13" s="72">
+      <c r="S13" s="67">
+        <v>4</v>
+      </c>
+      <c r="T13" s="71">
         <v>3.5</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="69">
         <v>3.3</v>
       </c>
-      <c r="V13" s="71">
+      <c r="V13" s="70">
         <v>3.8</v>
       </c>
-      <c r="W13" s="68">
-        <v>4</v>
-      </c>
-      <c r="X13" s="72">
+      <c r="W13" s="67">
+        <v>4</v>
+      </c>
+      <c r="X13" s="71">
         <v>3.5</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="Y13" s="69">
         <v>3.3</v>
       </c>
-      <c r="Z13" s="72">
+      <c r="Z13" s="71">
         <v>3.5</v>
       </c>
-      <c r="AA13" s="68">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="73">
+      <c r="AA13" s="67">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="72">
         <v>4.3</v>
       </c>
-      <c r="AC13" s="71">
+      <c r="AC13" s="70">
         <v>3.8</v>
       </c>
-      <c r="AD13" s="79">
+      <c r="AD13" s="78">
         <v>4.5</v>
       </c>
-      <c r="AE13" s="71">
+      <c r="AE13" s="70">
         <v>3.8</v>
       </c>
       <c r="AF13" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6375000000000002</v>
       </c>
       <c r="AG13" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9833333333333338</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ13" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14">
+        <v>67</v>
+      </c>
+      <c r="H14" s="14">
+        <v>165</v>
+      </c>
+      <c r="P14" s="15">
+        <f>0.58*H14</f>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="9"/>
+        <v>64.119</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -6606,310 +6573,310 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>71.5</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>173</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>0.73</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.9</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="46">
         <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>56.9</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>168</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>0.9</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>1</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>68.099999999999994</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>167.1</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>0.8</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <v>3.7</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>1</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>3.7</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>70.3</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>168.5</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.9</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="54">
         <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>63.35</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>164.1</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="55">
         <v>0.79</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="46">
         <v>0</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <v>0.8</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>62.35</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>168.3</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="57">
         <v>0.7</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <v>0</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>0.7</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="54">
         <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>72.05</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>176.6</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="58">
         <v>0.65</v>
       </c>
-      <c r="G11" s="60">
-        <v>4</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="G11" s="59">
+        <v>4</v>
+      </c>
+      <c r="H11" s="56">
         <v>0.8</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="54">
         <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>68.95</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>170.8</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>0.91</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="60">
         <v>4.5</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.9</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="61">
         <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>71.3</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>173</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="62">
         <v>0.72</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="63">
         <v>3.5</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <v>0.8</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>75.400000000000006</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>173.4</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>0.79</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>3.8</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>0.7</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>3.2</v>
       </c>
     </row>
@@ -6994,46 +6961,46 @@
       <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="33">
-        <v>3</v>
-      </c>
-      <c r="C4" s="33">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33">
-        <v>3</v>
-      </c>
-      <c r="E4" s="33">
-        <v>4</v>
-      </c>
-      <c r="F4" s="33">
-        <v>4</v>
-      </c>
-      <c r="G4" s="33">
-        <v>3</v>
-      </c>
-      <c r="H4" s="33">
-        <v>3</v>
-      </c>
-      <c r="I4" s="33">
-        <v>4</v>
-      </c>
-      <c r="J4" s="33">
-        <v>4</v>
-      </c>
-      <c r="K4" s="33">
-        <v>4</v>
-      </c>
-      <c r="L4" s="33">
-        <v>3</v>
-      </c>
-      <c r="M4" s="33">
+      <c r="B4" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32">
+        <v>4</v>
+      </c>
+      <c r="F4" s="32">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32">
+        <v>3</v>
+      </c>
+      <c r="H4" s="32">
+        <v>3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>4</v>
+      </c>
+      <c r="J4" s="32">
+        <v>4</v>
+      </c>
+      <c r="K4" s="32">
+        <v>4</v>
+      </c>
+      <c r="L4" s="32">
+        <v>3</v>
+      </c>
+      <c r="M4" s="32">
         <v>2</v>
       </c>
-      <c r="N4" s="33">
-        <v>3</v>
-      </c>
-      <c r="O4" s="33">
+      <c r="N4" s="32">
+        <v>3</v>
+      </c>
+      <c r="O4" s="32">
         <v>3</v>
       </c>
     </row>
@@ -7041,46 +7008,46 @@
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>3.25</v>
       </c>
-      <c r="C5" s="33">
-        <v>3</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32">
         <v>3.25</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>3.75</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>3.5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>3.25</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <v>3.25</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <v>3.25</v>
       </c>
-      <c r="J5" s="33">
-        <v>4</v>
-      </c>
-      <c r="K5" s="33">
+      <c r="J5" s="32">
+        <v>4</v>
+      </c>
+      <c r="K5" s="32">
         <v>3.25</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>4.25</v>
       </c>
-      <c r="M5" s="33">
-        <v>4</v>
-      </c>
-      <c r="N5" s="33">
+      <c r="M5" s="32">
+        <v>4</v>
+      </c>
+      <c r="N5" s="32">
         <v>4.25</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>3.75</v>
       </c>
     </row>
@@ -7088,46 +7055,46 @@
       <c r="A6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>3.5</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>3.5</v>
       </c>
-      <c r="D6" s="33">
-        <v>3</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="32">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32">
         <v>3.75</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>3.5</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>3.5</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="32">
         <v>3.5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <v>3.75</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>3.6</v>
       </c>
-      <c r="K6" s="33">
-        <v>4</v>
-      </c>
-      <c r="L6" s="33">
+      <c r="K6" s="32">
+        <v>4</v>
+      </c>
+      <c r="L6" s="32">
         <v>4.25</v>
       </c>
-      <c r="M6" s="33">
-        <v>4</v>
-      </c>
-      <c r="N6" s="33">
+      <c r="M6" s="32">
+        <v>4</v>
+      </c>
+      <c r="N6" s="32">
         <v>4.25</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="32">
         <v>3.75</v>
       </c>
     </row>
@@ -7135,46 +7102,46 @@
       <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C7" s="33">
-        <v>4</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="32">
+        <v>4</v>
+      </c>
+      <c r="D7" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="I7" s="33">
-        <v>3</v>
-      </c>
-      <c r="J7" s="33">
+      <c r="I7" s="32">
+        <v>3</v>
+      </c>
+      <c r="J7" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <v>2.75</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>3.25</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="32">
         <v>3.25</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>3</v>
       </c>
     </row>
@@ -7182,46 +7149,46 @@
       <c r="A8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>3.5</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>3.5</v>
       </c>
-      <c r="D8" s="33">
-        <v>3</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="32">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32">
         <v>3.5</v>
       </c>
-      <c r="F8" s="33">
-        <v>3</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="G8" s="32">
         <v>3.5</v>
       </c>
-      <c r="H8" s="33">
-        <v>4</v>
-      </c>
-      <c r="I8" s="33">
+      <c r="H8" s="32">
+        <v>4</v>
+      </c>
+      <c r="I8" s="32">
         <v>2.5</v>
       </c>
-      <c r="J8" s="33">
-        <v>3</v>
-      </c>
-      <c r="K8" s="33">
+      <c r="J8" s="32">
+        <v>3</v>
+      </c>
+      <c r="K8" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="M8" s="33">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33">
-        <v>4</v>
-      </c>
-      <c r="O8" s="33">
+      <c r="M8" s="32">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32">
+        <v>4</v>
+      </c>
+      <c r="O8" s="32">
         <v>4</v>
       </c>
     </row>
@@ -7229,46 +7196,46 @@
       <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>3.5</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>3.5</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>3.5</v>
       </c>
-      <c r="E9" s="33">
-        <v>4</v>
-      </c>
-      <c r="F9" s="33">
-        <v>4</v>
-      </c>
-      <c r="G9" s="33">
+      <c r="E9" s="32">
+        <v>4</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="G9" s="32">
         <v>3.5</v>
       </c>
-      <c r="H9" s="33">
-        <v>4</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="H9" s="32">
+        <v>4</v>
+      </c>
+      <c r="I9" s="32">
         <v>3.5</v>
       </c>
-      <c r="J9" s="33">
-        <v>4</v>
-      </c>
-      <c r="K9" s="33">
+      <c r="J9" s="32">
+        <v>4</v>
+      </c>
+      <c r="K9" s="32">
         <v>4.5</v>
       </c>
-      <c r="L9" s="33">
-        <v>4</v>
-      </c>
-      <c r="M9" s="33">
+      <c r="L9" s="32">
+        <v>4</v>
+      </c>
+      <c r="M9" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="32">
         <v>4.666666666666667</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <v>4</v>
       </c>
     </row>
@@ -7276,46 +7243,46 @@
       <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="33">
-        <v>4</v>
-      </c>
-      <c r="C10" s="33">
-        <v>3</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="B10" s="32">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32">
+        <v>3</v>
+      </c>
+      <c r="D10" s="32">
         <v>3.5</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>2.5</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>3.5</v>
       </c>
-      <c r="G10" s="33">
-        <v>3</v>
-      </c>
-      <c r="H10" s="33">
-        <v>3</v>
-      </c>
-      <c r="I10" s="33">
-        <v>3</v>
-      </c>
-      <c r="J10" s="33">
+      <c r="G10" s="32">
+        <v>3</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3</v>
+      </c>
+      <c r="I10" s="32">
+        <v>3</v>
+      </c>
+      <c r="J10" s="32">
         <v>4.333333333333333</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="N10" s="33">
-        <v>4</v>
-      </c>
-      <c r="O10" s="33">
+      <c r="N10" s="32">
+        <v>4</v>
+      </c>
+      <c r="O10" s="32">
         <v>3</v>
       </c>
     </row>
@@ -7323,46 +7290,46 @@
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="33">
-        <v>3</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="32">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32">
         <v>2.5</v>
       </c>
-      <c r="D11" s="33">
-        <v>3</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="32">
+        <v>3</v>
+      </c>
+      <c r="E11" s="32">
         <v>3.5</v>
       </c>
-      <c r="F11" s="33">
-        <v>3</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="F11" s="32">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32">
         <v>2.5</v>
       </c>
-      <c r="H11" s="33">
-        <v>3</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="H11" s="32">
+        <v>3</v>
+      </c>
+      <c r="I11" s="32">
         <v>2.5</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="K11" s="33">
-        <v>3</v>
-      </c>
-      <c r="L11" s="33">
+      <c r="K11" s="32">
+        <v>3</v>
+      </c>
+      <c r="L11" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="N11" s="33">
-        <v>4</v>
-      </c>
-      <c r="O11" s="33">
+      <c r="N11" s="32">
+        <v>4</v>
+      </c>
+      <c r="O11" s="32">
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -7370,46 +7337,46 @@
       <c r="A12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="C12" s="33">
-        <v>4</v>
-      </c>
-      <c r="D12" s="33">
-        <v>3</v>
-      </c>
-      <c r="E12" s="33">
-        <v>3</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="C12" s="32">
+        <v>4</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3</v>
+      </c>
+      <c r="E12" s="32">
+        <v>3</v>
+      </c>
+      <c r="F12" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <v>3.75</v>
       </c>
-      <c r="K12" s="33">
-        <v>3</v>
-      </c>
-      <c r="L12" s="33">
-        <v>3</v>
-      </c>
-      <c r="M12" s="33">
-        <v>4</v>
-      </c>
-      <c r="N12" s="33">
-        <v>3</v>
-      </c>
-      <c r="O12" s="33">
+      <c r="K12" s="32">
+        <v>3</v>
+      </c>
+      <c r="L12" s="32">
+        <v>3</v>
+      </c>
+      <c r="M12" s="32">
+        <v>4</v>
+      </c>
+      <c r="N12" s="32">
+        <v>3</v>
+      </c>
+      <c r="O12" s="32">
         <v>3.5</v>
       </c>
     </row>
@@ -7417,46 +7384,46 @@
       <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>2</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>2.3333333333333335</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="J13" s="33">
-        <v>3</v>
-      </c>
-      <c r="K13" s="33">
+      <c r="J13" s="32">
+        <v>3</v>
+      </c>
+      <c r="K13" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <v>4.5</v>
       </c>
-      <c r="M13" s="33">
-        <v>4</v>
-      </c>
-      <c r="N13" s="33">
+      <c r="M13" s="32">
+        <v>4</v>
+      </c>
+      <c r="N13" s="32">
         <v>4.5</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <v>4.75</v>
       </c>
     </row>
@@ -7464,46 +7431,46 @@
       <c r="A14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>3.3333333333333335</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="H14" s="33">
-        <v>3</v>
-      </c>
-      <c r="I14" s="33">
+      <c r="H14" s="32">
+        <v>3</v>
+      </c>
+      <c r="I14" s="32">
         <v>2.6666666666666665</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>3.75</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <v>3.5</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>3.75</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="32">
         <v>3.75</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <v>4</v>
       </c>
     </row>
@@ -7511,46 +7478,46 @@
       <c r="A15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>3.6666666666666665</v>
       </c>
-      <c r="C15" s="33">
-        <v>4</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C15" s="32">
+        <v>4</v>
+      </c>
+      <c r="D15" s="32">
         <v>3.5</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>3.25</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>3.75</v>
       </c>
-      <c r="G15" s="33">
-        <v>4</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="32">
+        <v>4</v>
+      </c>
+      <c r="H15" s="32">
         <v>3.5</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <v>3.25</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>3.5</v>
       </c>
-      <c r="K15" s="33">
-        <v>4</v>
-      </c>
-      <c r="L15" s="33">
+      <c r="K15" s="32">
+        <v>4</v>
+      </c>
+      <c r="L15" s="32">
         <v>4.25</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>3.75</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <v>4.5</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="32">
         <v>3.75</v>
       </c>
     </row>
@@ -7558,46 +7525,46 @@
       <c r="A16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16">
         <v>3.28125</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16">
         <v>3.25</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16">
         <v>3.0909090909090908</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16">
         <v>3.393939393939394</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16">
         <v>3.4242424242424243</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16">
         <v>3.2727272727272729</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16">
         <v>3.3636363636363638</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16">
         <v>3.1212121212121211</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16">
         <v>3.65</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16">
         <v>3.5135135135135136</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16">
         <v>3.7948717948717947</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16">
         <v>3.65</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16">
         <v>4.0263157894736841</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16">
         <v>3.736842105263158</v>
       </c>
     </row>
